--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C6B283-B5C5-413E-BB28-623F87B183A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851C1384-97DF-49E3-89D7-8F70B1E4075C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,46 +79,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:button:buy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:button:redraw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다시뽑기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Redraw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:button:exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:skill:explanation:fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유아이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,90 +402,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:button:retry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재도전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Retry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:button:startgame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startgame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:button:quit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:pause:title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타이틀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일시정지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:button:menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:button:resume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:stage:clear:congratulations</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -566,18 +446,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;파이어 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지)&lt;/size&gt;\n\n플레이어 진행 방향으로 파이어볼을 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;에너지 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(관통)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 관통하는 에너지 볼 을 날린다.</t>
   </si>
   <si>
     <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;에너지 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(관통)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 관통하는 에너지 볼 을 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Fire Ball&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage)&lt;/size&gt;\n\nFires a fireball in the direction the player is moving.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1661,12 +1533,142 @@
     <t>Stage 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>game:popup:stagetitle2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:stagetitle3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:stagetitle4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:stagetitle5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:stagetitle6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:stagetitle7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:stagetitle8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:stagetitle9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:stagetitle10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀</t>
+  </si>
+  <si>
+    <t>스테이지 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:stagemesstion1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1분동안 살아남기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survive for 1 minute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1750,6 +1752,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1768,10 +1777,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1792,9 +1804,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2076,7 +2092,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2114,19 +2130,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="F2" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -2134,19 +2150,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -2154,19 +2170,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>306</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>308</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>308</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -2174,19 +2190,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -2194,19 +2210,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>306</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -2214,19 +2230,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>306</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>107</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -2234,19 +2250,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>306</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>312</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>109</v>
+        <v>312</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -2254,19 +2270,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>306</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>313</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>113</v>
+        <v>313</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>114</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -2274,19 +2290,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>306</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>122</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -2294,39 +2310,39 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>306</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>325</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>136</v>
+        <v>326</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>139</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -2334,19 +2350,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -2354,19 +2370,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2374,19 +2390,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2394,19 +2410,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2414,19 +2430,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2434,19 +2450,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -2454,19 +2470,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -2474,19 +2490,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2494,19 +2510,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2514,19 +2530,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2534,19 +2550,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2554,19 +2570,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2574,19 +2590,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2594,19 +2610,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2614,19 +2630,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2634,19 +2650,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -2654,19 +2670,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -2674,19 +2690,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2694,19 +2710,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="C31" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -2714,19 +2730,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -2734,19 +2750,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -2754,19 +2770,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -2774,19 +2790,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -2794,19 +2810,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -2814,19 +2830,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -2834,19 +2850,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -2854,19 +2870,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -2874,19 +2890,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -2894,19 +2910,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -2914,19 +2930,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -2934,19 +2950,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
@@ -2954,19 +2970,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="C44" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
@@ -2974,19 +2990,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -2994,19 +3010,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="C46" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -3014,19 +3030,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="C47" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
@@ -3034,19 +3050,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="C48" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
@@ -3054,19 +3070,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="C49" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
@@ -3074,19 +3090,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="C50" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
@@ -3094,19 +3110,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="C51" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -3114,19 +3130,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
@@ -3134,19 +3150,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
@@ -3154,19 +3170,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
@@ -3174,19 +3190,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
@@ -3194,19 +3210,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="C56" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
@@ -3214,19 +3230,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
@@ -3234,19 +3250,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
@@ -3254,19 +3270,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
@@ -3274,19 +3290,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -3294,19 +3310,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
@@ -3314,19 +3330,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -3334,19 +3350,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
@@ -3354,19 +3370,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
@@ -3374,19 +3390,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
@@ -3394,19 +3410,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
@@ -3414,19 +3430,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -3434,19 +3450,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -3454,19 +3470,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -3474,19 +3490,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="C70" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
@@ -3494,19 +3510,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C71" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
@@ -3514,19 +3530,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
@@ -3534,19 +3550,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
@@ -3554,19 +3570,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -3574,19 +3590,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="C75" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
@@ -3594,19 +3610,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
@@ -3614,19 +3630,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -3654,19 +3670,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
@@ -3686,7 +3702,7 @@
         <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
@@ -3694,19 +3710,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -3714,19 +3730,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C82" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
@@ -3734,19 +3750,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
@@ -3754,19 +3770,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="F84" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
@@ -3774,19 +3790,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="C85" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
@@ -3794,19 +3810,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="C86" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D86" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="E86" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="F86" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
@@ -3814,19 +3830,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="C87" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="D87" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="E87" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="F87" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
@@ -3834,19 +3850,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C88" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F88" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
@@ -3854,19 +3870,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="C89" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="F89" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
@@ -3874,19 +3890,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C90" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="F90" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851C1384-97DF-49E3-89D7-8F70B1E4075C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12B966C-D695-437F-9291-2E7771898DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="325">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,7 +135,351 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:skill:explanation:tornado</t>
+    <t>game:skill:name:blackhole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackHole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:sawblade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향키를  이용해서  상점으로  들어가세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use  the  arrow  keys  to  enter  the  shop!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payment   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:acquisition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acquisition   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용한 금화   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아몬드 획득   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 방문 횟수   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:progresstext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행률   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progress   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:setup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:diamondstore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:achievement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achievement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크레딧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:store:power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격력을 강화 합니다.</t>
+  </si>
+  <si>
+    <t>Increases basic attack power.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:store:health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력을 증가시킵니다.</t>
+  </si>
+  <si>
+    <t>최대 체력을 증가시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increases maximum health.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start with more money.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 많은 돈을 가지고 시작 합니다.</t>
+  </si>
+  <si>
+    <t>더 많은 돈을 가지고 시작 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:store:startgold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eating potions recovers more.</t>
+  </si>
+  <si>
+    <t>포션을 먹으면 더 많이 회복합니다.</t>
+  </si>
+  <si>
+    <t>game:main:store:potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:achievement:pig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지 1000마리 잡기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:achievement:try</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:stage:clear:congratulations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축하합니다 !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:waveenergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;에너지 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(관통)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 관통하는 에너지 볼 을 날린다.</t>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;에너지 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(관통)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 관통하는 에너지 볼 을 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:spark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:waveenergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지 볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Energy Ball&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Penetrate)&lt;/size&gt;\n\nLaunch an energy ball that penetrates through enemies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:stage:item:bossdistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스와의 거리</t>
+  </si>
+  <si>
+    <t>보스와의 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance from the boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clairvoyant</t>
+  </si>
+  <si>
+    <t>천리안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:clairvoyant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;천리안&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n보스와 플레이어 사이의 거리를 알려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Clairvoyant&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nIndicates the distance between the boss and the player.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:clairvoyant</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -143,15 +487,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:skill:explanation:blackhole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:blackhole</t>
+    <t>game:skill:explanation:volcano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:volcano</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,402 +499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>블랙홀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlackHole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:ui:progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:sawblade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:sawblade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;토네이도&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 밀쳐내는 토네이도를 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;블랙홀&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기+)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 끌어당기는 블랙홀을 날린다.\n&lt;size=85%&gt;(공격속도 매우빠름!)&lt;/size&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:ui:information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방향키를  이용해서  상점으로  들어가세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use  the  arrow  keys  to  enter  the  shop!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:ui:payment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Payment   :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:ui:acquisition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acquisition   :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용한 금화   :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이아몬드 획득   :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점 방문 횟수   :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count   :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:ui:count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:ui:progresstext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행률   :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Progress   :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:ui:setup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set-up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:ui:diamondstore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:ui:achievement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Achievement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:ui:credit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크레딧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Credit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:main:korean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:main:store:power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격력을 강화 합니다.</t>
-  </si>
-  <si>
-    <t>Increases basic attack power.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:main:store:health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 체력을 증가시킵니다.</t>
-  </si>
-  <si>
-    <t>최대 체력을 증가시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increases maximum health.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start with more money.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 많은 돈을 가지고 시작 합니다.</t>
-  </si>
-  <si>
-    <t>더 많은 돈을 가지고 시작 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:main:store:startgold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eating potions recovers more.</t>
-  </si>
-  <si>
-    <t>포션을 먹으면 더 많이 회복합니다.</t>
-  </si>
-  <si>
-    <t>game:main:store:potion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:main:achievement:pig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지 1000마리 잡기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:main:achievement:try</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이틀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:stage:clear:congratulations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congratulations !</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축하합니다 !</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:spark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;스파크&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(단일데미지)&lt;/size&gt;\n\n플레이어 진행 방향으로 아주 빠르게 스파크를 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Tornado&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,Knock-Back)&lt;/size&gt;\n\nThrows a tornado that pushes enemies in the direction the player is moving.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;BlackHole&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,Knock-Back+)&lt;/size&gt;\n\nThrows a black hole that pulls enemies in the direction the player is moving.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Spark&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Direct Hit)&lt;/size&gt;\n\nThe player rapidly shoots sparks in the direction of movement.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:waveenergy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;에너지 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(관통)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 관통하는 에너지 볼 을 날린다.</t>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;에너지 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(관통)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 관통하는 에너지 볼 을 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:spark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스파크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 볼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:waveenergy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에너지 볼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy Ball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire Ball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Energy Ball&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Penetrate)&lt;/size&gt;\n\nLaunch an energy ball that penetrates through enemies.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:stage:item:bossdistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스와의 거리</t>
-  </si>
-  <si>
-    <t>보스와의 거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance from the boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clairvoyant</t>
-  </si>
-  <si>
-    <t>천리안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:clairvoyant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;천리안&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n보스와 플레이어 사이의 거리를 알려준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Clairvoyant&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nIndicates the distance between the boss and the player.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:clairvoyant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:volcano</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:volcano</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>볼케이노</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -563,15 +507,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;SawBlade&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(revolution)&lt;/size&gt;\n\nadded saw blades that orbit the player.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>톱날</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;톱날&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(공전)&lt;/size&gt;\n\n플레이어 주위를 돌아다니는 톱니가 생긴다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1658,6 +1594,53 @@
   </si>
   <si>
     <t>Survive for 1 minute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:button:resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:button:restart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:button:setup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>game:button:gototown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go To Town</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2091,8 +2074,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2130,19 +2113,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E2" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -2150,19 +2133,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E3" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="F3" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -2170,19 +2153,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -2190,19 +2173,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D5" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E5" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -2210,19 +2193,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -2230,19 +2213,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -2250,19 +2233,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -2270,19 +2253,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -2290,19 +2273,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -2310,19 +2293,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -2330,99 +2313,99 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C12" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>313</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>318</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
+        <v>318</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>314</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>322</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>314</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>104</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2430,19 +2413,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2450,19 +2433,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -2470,19 +2453,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -2490,19 +2473,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2510,19 +2493,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2530,19 +2513,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2550,19 +2533,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2570,19 +2553,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2590,19 +2573,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2610,19 +2593,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2630,19 +2613,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2650,19 +2633,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -2670,19 +2653,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -2690,19 +2673,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -2710,19 +2693,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -2736,13 +2719,13 @@
         <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -2770,19 +2753,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -2790,19 +2773,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -2810,19 +2793,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -2830,19 +2813,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -2850,19 +2833,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -2870,19 +2853,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -2890,19 +2873,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -2910,19 +2893,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -2930,19 +2913,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -2950,10 +2933,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>13</v>
@@ -2962,7 +2945,7 @@
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
@@ -2970,19 +2953,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
@@ -2990,19 +2973,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -3010,19 +2993,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -3030,19 +3013,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
@@ -3050,19 +3033,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
@@ -3070,19 +3053,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C49" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
@@ -3090,19 +3073,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C50" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
@@ -3110,19 +3093,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C51" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -3150,10 +3133,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>18</v>
@@ -3170,19 +3153,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
@@ -3190,19 +3173,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
@@ -3210,19 +3193,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C56" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
@@ -3230,19 +3213,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
@@ -3250,19 +3233,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
@@ -3270,19 +3253,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
@@ -3290,19 +3273,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -3310,19 +3293,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
@@ -3330,19 +3313,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -3350,19 +3333,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
@@ -3370,19 +3353,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
@@ -3390,19 +3373,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
@@ -3410,19 +3393,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
@@ -3430,19 +3413,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -3450,19 +3433,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -3470,19 +3453,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -3490,19 +3473,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C70" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
@@ -3510,19 +3493,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C71" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
@@ -3530,19 +3513,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
@@ -3550,19 +3533,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
@@ -3570,19 +3553,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -3590,19 +3573,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C75" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
@@ -3610,19 +3593,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
@@ -3630,19 +3613,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -3670,19 +3653,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
@@ -3702,7 +3685,7 @@
         <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
@@ -3710,19 +3693,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -3730,19 +3713,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C82" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
@@ -3750,19 +3733,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C83" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
@@ -3770,19 +3753,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="F84" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
@@ -3790,19 +3773,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C85" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
@@ -3810,19 +3793,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E86" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F86" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
@@ -3830,19 +3813,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D87" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E87" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="F87" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
@@ -3850,19 +3833,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C88" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="F88" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
@@ -3870,19 +3853,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C89" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="F89" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
@@ -3890,19 +3873,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C90" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F90" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Smash\DataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12B966C-D695-437F-9291-2E7771898DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A4D090-4BE6-40F5-AA16-A46907BB89BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,17 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:skill:explanation:waveenergy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;에너지 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(관통)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 관통하는 에너지 볼 을 날린다.</t>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;에너지 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(관통)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 관통하는 에너지 볼 을 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:spark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,10 +419,6 @@
   </si>
   <si>
     <t>Fire Ball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Energy Ball&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Penetrate)&lt;/size&gt;\n\nLaunch an energy ball that penetrates through enemies.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1643,6 +1628,22 @@
     <t>Go To Town</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>gmae:store:button:buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1651,7 +1652,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2074,21 +2075,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.8984375" customWidth="1"/>
-    <col min="2" max="2" width="30.59765625" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" customWidth="1"/>
-    <col min="4" max="4" width="49.8984375" customWidth="1"/>
-    <col min="5" max="5" width="50.19921875" customWidth="1"/>
-    <col min="6" max="6" width="50.3984375" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="49.875" customWidth="1"/>
+    <col min="5" max="5" width="50.25" customWidth="1"/>
+    <col min="6" max="6" width="50.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2108,275 +2109,275 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" t="s">
         <v>286</v>
       </c>
-      <c r="C8" t="s">
-        <v>290</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C13" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
@@ -2385,330 +2386,330 @@
         <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C16" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>321</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>93</v>
+        <v>322</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>323</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="49.5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="66">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="66">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="49.5">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:6" ht="49.5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="49.5">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="49.5">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="49.5">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="49.5">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:6" ht="49.5">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="49.5">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:6" ht="66">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:6" ht="66">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="49.5">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C31" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2719,16 +2720,16 @@
         <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2779,164 +2780,164 @@
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>13</v>
@@ -2945,170 +2946,170 @@
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" t="s">
         <v>170</v>
       </c>
-      <c r="C46" t="s">
-        <v>174</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C48" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C49" t="s">
-        <v>235</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C50" t="s">
+        <v>231</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C51" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3148,7 +3149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3188,27 +3189,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C56" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3228,7 +3229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3268,7 +3269,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3308,7 +3309,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3348,7 +3349,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3428,7 +3429,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3448,187 +3449,187 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C69" t="s">
-        <v>105</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:6" ht="66">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C70" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" t="s">
+        <v>250</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C71" t="s">
-        <v>254</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="73" spans="1:6" ht="17.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E73" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="74" spans="1:6" ht="17.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C75" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3648,7 +3649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3668,7 +3669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3699,44 +3700,44 @@
         <v>58</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C82" t="s">
+        <v>183</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>84</v>
@@ -3745,10 +3746,10 @@
         <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3759,133 +3760,133 @@
         <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F84" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C85" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C86" t="s">
         <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E86" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F86" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C87" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D87" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E87" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F87" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C88" t="s">
         <v>58</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F88" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C89" t="s">
         <v>58</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F89" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" t="s">
+        <v>210</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C90" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="E90" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F90" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A4D090-4BE6-40F5-AA16-A46907BB89BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509B36F6-3090-48DC-9430-FFFEC9DBB3A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="324">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,22 +453,6 @@
   </si>
   <si>
     <t>스킬명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;천리안&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n보스와 플레이어 사이의 거리를 알려준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Clairvoyant&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nIndicates the distance between the boss and the player.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:clairvoyant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1642,6 +1626,18 @@
   </si>
   <si>
     <t>Buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmae:store:button:sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2076,7 +2072,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2114,19 +2110,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2134,19 +2130,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2154,19 +2150,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2174,19 +2170,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2194,19 +2190,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2214,19 +2210,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2234,19 +2230,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" t="s">
         <v>282</v>
       </c>
-      <c r="C8" t="s">
-        <v>286</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2254,19 +2250,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2274,19 +2270,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2294,19 +2290,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2314,19 +2310,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2334,19 +2330,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2354,19 +2350,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2374,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C15" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
@@ -2386,7 +2382,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2394,19 +2390,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C16" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2414,39 +2410,39 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="49.5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>306</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>109</v>
+        <v>322</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>109</v>
+        <v>322</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>110</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="66">
@@ -2454,19 +2450,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="66">
@@ -2474,19 +2470,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="49.5">
@@ -2494,19 +2490,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5">
@@ -2514,19 +2510,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="49.5">
@@ -2534,19 +2530,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="49.5">
@@ -2554,19 +2550,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="49.5">
@@ -2574,19 +2570,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="49.5">
@@ -2594,19 +2590,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="49.5">
@@ -2614,19 +2610,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="49.5">
@@ -2634,19 +2630,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C28" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="66">
@@ -2654,19 +2650,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="66">
@@ -2674,19 +2670,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="49.5">
@@ -2694,19 +2690,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2780,13 +2776,13 @@
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2854,19 +2850,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2874,19 +2870,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2894,19 +2890,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2914,19 +2910,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2934,10 +2930,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>13</v>
@@ -2946,7 +2942,7 @@
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2954,19 +2950,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2974,19 +2970,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2994,19 +2990,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" t="s">
         <v>166</v>
       </c>
-      <c r="C46" t="s">
-        <v>170</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3014,19 +3010,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3034,19 +3030,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C48" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3054,19 +3050,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C49" t="s">
-        <v>231</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3074,19 +3070,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C50" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3094,19 +3090,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C51" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3194,19 +3190,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3474,19 +3470,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C70" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25">
@@ -3494,19 +3490,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C71" t="s">
-        <v>250</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25">
@@ -3514,19 +3510,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25">
@@ -3534,19 +3530,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25">
@@ -3554,19 +3550,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3574,19 +3570,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C75" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25">
@@ -3594,19 +3590,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25">
@@ -3614,19 +3610,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3700,13 +3696,13 @@
         <v>58</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3714,19 +3710,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C82" t="s">
+        <v>179</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3734,10 +3730,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C83" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>84</v>
@@ -3746,7 +3742,7 @@
         <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3760,13 +3756,13 @@
         <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F84" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3774,19 +3770,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C85" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3794,19 +3790,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C86" t="s">
         <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E86" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F86" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3814,19 +3810,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C87" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D87" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E87" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F87" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3834,19 +3830,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C88" t="s">
         <v>58</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F88" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3854,19 +3850,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C89" t="s">
         <v>58</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F89" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3874,19 +3870,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C90" t="s">
-        <v>210</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="E90" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F90" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509B36F6-3090-48DC-9430-FFFEC9DBB3A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC721E09-DAC7-479D-ADFF-3E537378EA67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,10 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:skill:explanation:volcano</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:volcano</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,14 +497,6 @@
   </si>
   <si>
     <t>Trident</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;볼케이노&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,소환)&lt;/size&gt;\n\n일정 범위 안에 적이 있으면 볼케이노를 소환한다.\n&lt;size=85%&gt;(공격속도 매우빠름!)&lt;/size&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;Volcano&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,summon)&lt;/size&gt;\n\nIf there are enemies within a certain range, summon a volcano.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1638,6 +1626,18 @@
   </si>
   <si>
     <t>Sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:purchasequantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Quantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2071,8 +2071,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2110,19 +2110,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2130,19 +2130,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2150,19 +2150,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2170,19 +2170,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" t="s">
         <v>282</v>
       </c>
-      <c r="D5" t="s">
-        <v>285</v>
-      </c>
       <c r="E5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2190,19 +2190,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2210,19 +2210,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2230,19 +2230,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2250,19 +2250,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" t="s">
         <v>279</v>
       </c>
-      <c r="C9" t="s">
-        <v>282</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2270,19 +2270,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2290,19 +2290,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2310,19 +2310,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2330,19 +2330,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="C13" t="s">
-        <v>306</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2350,19 +2350,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
@@ -2382,7 +2382,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2390,19 +2390,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2410,19 +2410,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C17" t="s">
-        <v>306</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2430,39 +2430,39 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="66">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>121</v>
+        <v>322</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>121</v>
+        <v>322</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>122</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="66">
@@ -2470,19 +2470,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
         <v>115</v>
       </c>
-      <c r="C20" t="s">
-        <v>116</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="49.5">
@@ -2490,19 +2490,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5">
@@ -2510,19 +2510,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="49.5">
@@ -2530,19 +2530,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="49.5">
@@ -2550,19 +2550,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="49.5">
@@ -2570,19 +2570,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="49.5">
@@ -2590,19 +2590,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C26" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="49.5">
@@ -2610,19 +2610,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="49.5">
@@ -2630,19 +2630,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="66">
@@ -2650,19 +2650,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="66">
@@ -2670,19 +2670,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="49.5">
@@ -2690,19 +2690,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2776,13 +2776,13 @@
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2850,19 +2850,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
         <v>110</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2870,19 +2870,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
         <v>117</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2890,19 +2890,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2910,19 +2910,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2930,10 +2930,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" t="s">
         <v>145</v>
-      </c>
-      <c r="C43" t="s">
-        <v>148</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>13</v>
@@ -2942,7 +2942,7 @@
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2950,19 +2950,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2970,19 +2970,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2990,19 +2990,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3010,19 +3010,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="C47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3030,19 +3030,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C48" t="s">
-        <v>213</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3050,19 +3050,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" t="s">
         <v>224</v>
       </c>
-      <c r="C49" t="s">
-        <v>227</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3070,19 +3070,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C50" t="s">
+        <v>224</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3090,19 +3090,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3190,19 +3190,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C56" t="s">
-        <v>238</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3470,19 +3470,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C70" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25">
@@ -3490,19 +3490,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" t="s">
+        <v>243</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25">
@@ -3510,19 +3510,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E72" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25">
@@ -3530,19 +3530,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E73" s="8" t="s">
-        <v>256</v>
-      </c>
       <c r="F73" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25">
@@ -3550,19 +3550,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>256</v>
-      </c>
       <c r="F74" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3570,19 +3570,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C75" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25">
@@ -3590,19 +3590,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25">
@@ -3610,19 +3610,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3696,13 +3696,13 @@
         <v>58</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3710,19 +3710,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3730,10 +3730,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C83" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>84</v>
@@ -3742,7 +3742,7 @@
         <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3756,13 +3756,13 @@
         <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F84" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3770,19 +3770,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C85" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3790,19 +3790,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C86" t="s">
         <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E86" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F86" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3810,19 +3810,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D87" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E87" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F87" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3830,19 +3830,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C88" t="s">
         <v>58</v>
       </c>
       <c r="D88" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F88" t="s">
         <v>198</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F88" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3850,19 +3850,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C89" t="s">
         <v>58</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F89" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3870,19 +3870,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C90" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F90" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC721E09-DAC7-479D-ADFF-3E537378EA67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5FA7BB-B7A5-4D38-8A04-F50332E6565B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2072,7 +2072,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5FA7BB-B7A5-4D38-8A04-F50332E6565B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2913F25-3E31-45D9-99F4-D25805013AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="320">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,14 +476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:skill:explanation:trident</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:trident</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,38 +492,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;삼지창&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,소환)&lt;/size&gt;\n\n일정 범위 안에 적이 있으면 삼지창을 소환한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Trident&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,summon)&lt;/size&gt;\n\nIf there are enemies within a certain range, summon a Trident.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;신속&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n플레이어의 이동속도를 증가 시킨다.</t>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;신속&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n플레이어의 이동속도를 증가 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:quickness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Quickness&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nIncreases the player's movement speed.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1638,6 +1603,26 @@
   </si>
   <si>
     <t>Purchase Quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backpack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2071,8 +2056,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2110,19 +2095,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2130,19 +2115,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
       <c r="D3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" t="s">
         <v>280</v>
-      </c>
-      <c r="E3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2150,19 +2135,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2170,19 +2155,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" t="s">
         <v>282</v>
-      </c>
-      <c r="E5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F5" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2190,19 +2175,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2210,19 +2195,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2230,19 +2215,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2250,19 +2235,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2270,19 +2255,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C10" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2290,19 +2275,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2310,19 +2295,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2330,19 +2315,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2350,19 +2335,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C14" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2370,10 +2355,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
@@ -2382,7 +2367,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2390,19 +2375,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2410,19 +2395,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C17" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2430,19 +2415,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C18" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2450,59 +2435,59 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="66">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>315</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="49.5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>316</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>124</v>
+        <v>317</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>128</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5">
@@ -2510,19 +2495,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="49.5">
@@ -2530,19 +2515,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="49.5">
@@ -2550,19 +2535,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="49.5">
@@ -2570,19 +2555,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="49.5">
@@ -2590,19 +2575,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="49.5">
@@ -2610,19 +2595,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="49.5">
@@ -2630,19 +2615,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="66">
@@ -2650,19 +2635,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="66">
@@ -2670,19 +2655,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="49.5">
@@ -2690,19 +2675,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C31" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2782,7 +2767,7 @@
         <v>113</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2870,19 +2855,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2890,19 +2875,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2910,19 +2895,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2930,10 +2915,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>13</v>
@@ -2942,7 +2927,7 @@
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2950,19 +2935,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2970,19 +2955,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2990,19 +2975,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3010,19 +2995,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3030,19 +3015,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3050,19 +3035,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C49" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3070,19 +3055,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3090,19 +3075,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C51" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3190,19 +3175,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C56" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3470,19 +3455,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C70" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25">
@@ -3490,19 +3475,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C71" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25">
@@ -3510,19 +3495,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25">
@@ -3530,19 +3515,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25">
@@ -3550,19 +3535,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3570,19 +3555,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C75" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25">
@@ -3590,19 +3575,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25">
@@ -3610,19 +3595,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3696,13 +3681,13 @@
         <v>58</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3710,19 +3695,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3730,10 +3715,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>84</v>
@@ -3742,7 +3727,7 @@
         <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3756,13 +3741,13 @@
         <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F84" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3770,19 +3755,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3790,19 +3775,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C86" t="s">
         <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E86" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F86" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3810,19 +3795,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C87" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D87" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E87" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F87" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3830,19 +3815,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C88" t="s">
         <v>58</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F88" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3850,19 +3835,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C89" t="s">
         <v>58</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F89" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3870,19 +3855,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C90" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F90" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2913F25-3E31-45D9-99F4-D25805013AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641C206A-2093-460F-877C-36672B03894E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="319">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -520,34 +520,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:slowdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;감속&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n보스의 이동속도를 감소 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;Slowdown&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nReduces the boss's movement speed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:slowdown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:skill:explanation:redraw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:redraw2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:explanation:redraw3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -568,27 +544,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Redraw&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Disposable)&lt;/size&gt;\n\nPay '50' gold and reset the store's inventory.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Redraw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;다시뽑기&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(일회용)&lt;/size&gt;\n\n골드 '50'을 지불하고 상점 목록을 리셋 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;다시뽑기 2&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(일회용)&lt;/size&gt;\n\n골드 지불 없이 상점 목록을 리셋 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;size=120%&gt;&lt;#FFFF32&gt;다시뽑기 3&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(일회용)&lt;/size&gt;\n\n골드 '100'을 받고 상점 목록을 리셋 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Redraw 2&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Disposable)&lt;/size&gt;\n\nReset the store's inventory without paying any gold.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1623,6 +1583,41 @@
   </si>
   <si>
     <t>Backpack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:inpo:buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you really going to make a purchase?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 구입 하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you really going to sell it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:inpo:sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 판매 하시겠습니까?</t>
+  </si>
+  <si>
+    <t>정말 판매 하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:quantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2056,8 +2051,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2095,19 +2090,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2115,19 +2110,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2135,19 +2130,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2155,19 +2150,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" t="s">
         <v>263</v>
       </c>
-      <c r="C5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D5" t="s">
-        <v>273</v>
-      </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F5" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2175,19 +2170,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2195,19 +2190,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2215,19 +2210,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2235,19 +2230,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2255,19 +2250,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2275,19 +2270,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2295,19 +2290,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2315,19 +2310,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2335,19 +2330,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2355,10 +2350,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C15" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
@@ -2367,7 +2362,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2375,19 +2370,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2395,19 +2390,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C17" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2415,19 +2410,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C18" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2435,19 +2430,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2455,7 +2450,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -2475,79 +2470,79 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="49.5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>310</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>311</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>127</v>
+        <v>313</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>127</v>
+        <v>313</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="49.5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>315</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>311</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>139</v>
+        <v>317</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>139</v>
+        <v>316</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="49.5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>318</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>140</v>
+        <v>303</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>140</v>
+        <v>303</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>142</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="49.5">
@@ -2555,19 +2550,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="49.5">
@@ -2575,19 +2570,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="49.5">
@@ -2595,19 +2590,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="49.5">
@@ -2615,19 +2610,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="66">
@@ -2635,19 +2630,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="66">
@@ -2655,19 +2650,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="49.5">
@@ -2675,19 +2670,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C31" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2767,7 +2762,7 @@
         <v>113</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2895,7 +2890,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
         <v>122</v>
@@ -2915,10 +2910,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>13</v>
@@ -2927,7 +2922,7 @@
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2935,19 +2930,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="F44" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2955,19 +2950,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C45" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2975,19 +2970,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2995,19 +2990,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3015,19 +3010,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3035,19 +3030,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C49" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3055,19 +3050,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3075,19 +3070,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C51" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3175,19 +3170,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C56" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3455,19 +3450,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C70" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25">
@@ -3475,19 +3470,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C71" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25">
@@ -3495,19 +3490,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25">
@@ -3515,19 +3510,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25">
@@ -3535,19 +3530,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3555,19 +3550,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C75" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25">
@@ -3575,19 +3570,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25">
@@ -3595,19 +3590,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3681,13 +3676,13 @@
         <v>58</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3695,19 +3690,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3715,10 +3710,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>84</v>
@@ -3727,7 +3722,7 @@
         <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3741,13 +3736,13 @@
         <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F84" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3755,19 +3750,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3775,19 +3770,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C86" t="s">
         <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E86" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3795,19 +3790,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C87" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" t="s">
         <v>167</v>
       </c>
-      <c r="D87" t="s">
-        <v>177</v>
-      </c>
       <c r="E87" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3815,19 +3810,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C88" t="s">
         <v>58</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F88" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3835,19 +3830,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C89" t="s">
         <v>58</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F89" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3855,19 +3850,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C90" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F90" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641C206A-2093-460F-877C-36672B03894E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F39B86-B6F6-453A-9493-AA8701714950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,10 +524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:skill:explanation:redraw3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:redraw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -548,14 +544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;다시뽑기 3&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(일회용)&lt;/size&gt;\n\n골드 '100'을 받고 상점 목록을 리셋 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;Redraw 3&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Disposable)&lt;/size&gt;\n\nReceive '100' gold and reset the store's inventory.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다시뽑기 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -576,23 +564,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:skill:explanation:regenerate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:regenerate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;체력 회복&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n10초마다 플레이어의 체력을 회복시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Regenerate&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nEvery 10 seconds, the player's health regenerates.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1618,6 +1594,28 @@
   </si>
   <si>
     <t>game:popup:quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:quickslots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀵 슬롯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템을 누르고 '등록' 버튼을 누른 뒤 '퀵 슬롯'에 등록하여 \n사용하세요!</t>
+  </si>
+  <si>
+    <t>Click on the item, click the 'Register' button, and register it in the quick slot to use it!</t>
+  </si>
+  <si>
+    <t>game:popup:inpo:quickslots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick Slots</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2052,7 +2050,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2090,19 +2088,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2110,19 +2108,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2130,19 +2128,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2150,19 +2148,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2170,19 +2168,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
         <v>254</v>
       </c>
-      <c r="C6" t="s">
-        <v>260</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2190,19 +2188,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2210,19 +2208,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2230,19 +2228,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2250,19 +2248,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2270,19 +2268,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2290,19 +2288,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2310,19 +2308,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2330,19 +2328,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2350,10 +2348,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
@@ -2362,7 +2360,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2370,19 +2368,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2390,19 +2388,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C17" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2410,19 +2408,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C18" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2430,19 +2428,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2450,7 +2448,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -2470,19 +2468,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2490,19 +2488,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C22" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2510,19 +2508,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C23" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2530,59 +2528,59 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="49.5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>313</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>132</v>
+        <v>314</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>132</v>
+        <v>314</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="49.5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="33">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>317</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>142</v>
+        <v>315</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>142</v>
+        <v>315</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>143</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="49.5">
@@ -2590,19 +2588,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="49.5">
@@ -2610,19 +2608,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="66">
@@ -2630,19 +2628,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="66">
@@ -2650,19 +2648,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="49.5">
@@ -2670,19 +2668,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2762,7 +2760,7 @@
         <v>113</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2910,10 +2908,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>13</v>
@@ -2922,7 +2920,7 @@
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2930,19 +2928,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2950,19 +2948,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
         <v>129</v>
       </c>
-      <c r="C45" t="s">
-        <v>130</v>
-      </c>
       <c r="D45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2970,19 +2968,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="C46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2990,19 +2988,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3010,19 +3008,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3030,19 +3028,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3050,19 +3048,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C50" t="s">
-        <v>205</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3070,19 +3068,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3170,19 +3168,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C56" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3450,19 +3448,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25">
@@ -3470,19 +3468,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C71" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25">
@@ -3490,19 +3488,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25">
@@ -3510,19 +3508,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25">
@@ -3530,19 +3528,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3550,19 +3548,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C75" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25">
@@ -3570,19 +3568,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25">
@@ -3590,19 +3588,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3676,13 +3674,13 @@
         <v>58</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3690,19 +3688,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C82" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C82" t="s">
-        <v>157</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3710,10 +3708,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>84</v>
@@ -3722,7 +3720,7 @@
         <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3736,13 +3734,13 @@
         <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F84" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3750,19 +3748,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C85" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3770,19 +3768,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C86" t="s">
         <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E86" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3790,19 +3788,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C87" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D87" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F87" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3810,19 +3808,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C88" t="s">
         <v>58</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3830,19 +3828,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C89" t="s">
         <v>58</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F89" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3850,19 +3848,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" t="s">
         <v>178</v>
       </c>
-      <c r="C90" t="s">
-        <v>184</v>
-      </c>
       <c r="D90" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F90" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F39B86-B6F6-453A-9493-AA8701714950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641C206A-2093-460F-877C-36672B03894E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,6 +524,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>game:skill:explanation:redraw3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>game:skill:name:redraw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,6 +548,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;다시뽑기 3&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(일회용)&lt;/size&gt;\n\n골드 '100'을 받고 상점 목록을 리셋 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;Redraw 3&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Disposable)&lt;/size&gt;\n\nReceive '100' gold and reset the store's inventory.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>다시뽑기 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,11 +576,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>game:skill:explanation:regenerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>game:skill:name:regenerate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;체력 회복&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n10초마다 플레이어의 체력을 회복시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Regenerate&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nEvery 10 seconds, the player's health regenerates.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1594,28 +1618,6 @@
   </si>
   <si>
     <t>game:popup:quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:quickslots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀵 슬롯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템을 누르고 '등록' 버튼을 누른 뒤 '퀵 슬롯'에 등록하여 \n사용하세요!</t>
-  </si>
-  <si>
-    <t>Click on the item, click the 'Register' button, and register it in the quick slot to use it!</t>
-  </si>
-  <si>
-    <t>game:popup:inpo:quickslots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quick Slots</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2050,7 +2052,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2088,19 +2090,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2108,19 +2110,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2128,19 +2130,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2148,19 +2150,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2168,19 +2170,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2188,19 +2190,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2208,19 +2210,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2228,19 +2230,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2248,19 +2250,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2268,19 +2270,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2288,19 +2290,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2308,19 +2310,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2328,19 +2330,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2348,10 +2350,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" t="s">
         <v>284</v>
-      </c>
-      <c r="C15" t="s">
-        <v>278</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
@@ -2360,7 +2362,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2368,19 +2370,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C16" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2388,19 +2390,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C17" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2408,19 +2410,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C18" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2428,19 +2430,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2448,7 +2450,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -2468,19 +2470,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2488,19 +2490,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C22" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2508,19 +2510,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C23" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2528,59 +2530,59 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="49.5">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="33">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="49.5">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>315</v>
+        <v>142</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>315</v>
+        <v>142</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>316</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="49.5">
@@ -2588,19 +2590,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="49.5">
@@ -2608,19 +2610,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="66">
@@ -2628,19 +2630,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="66">
@@ -2648,19 +2650,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="49.5">
@@ -2668,19 +2670,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2760,7 +2762,7 @@
         <v>113</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2908,10 +2910,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>13</v>
@@ -2920,7 +2922,7 @@
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2928,19 +2930,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2948,19 +2950,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2968,19 +2970,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2988,19 +2990,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3008,19 +3010,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C48" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3028,19 +3030,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3048,19 +3050,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3068,19 +3070,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3168,19 +3170,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3448,19 +3450,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25">
@@ -3468,19 +3470,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25">
@@ -3488,19 +3490,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25">
@@ -3508,19 +3510,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25">
@@ -3528,19 +3530,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3548,19 +3550,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25">
@@ -3568,19 +3570,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25">
@@ -3588,19 +3590,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3674,13 +3676,13 @@
         <v>58</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3688,19 +3690,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C82" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3708,10 +3710,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>84</v>
@@ -3720,7 +3722,7 @@
         <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3734,13 +3736,13 @@
         <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F84" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3748,19 +3750,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C85" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3768,19 +3770,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C86" t="s">
         <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E86" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3788,19 +3790,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C87" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D87" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3808,19 +3810,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C88" t="s">
         <v>58</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F88" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3828,19 +3830,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C89" t="s">
         <v>58</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F89" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3848,19 +3850,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F90" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641C206A-2093-460F-877C-36672B03894E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB05791E-9604-4587-9E5C-E0C6D1E13B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,10 +524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:skill:explanation:redraw3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:redraw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,14 +541,6 @@
   </si>
   <si>
     <t>Redraw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;다시뽑기 3&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(일회용)&lt;/size&gt;\n\n골드 '100'을 받고 상점 목록을 리셋 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;Redraw 3&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Disposable)&lt;/size&gt;\n\nReceive '100' gold and reset the store's inventory.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1619,6 +1607,16 @@
   <si>
     <t>game:popup:quantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:inpo:installinfotext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치를 취소하려면 'esc'를 누르세요.</t>
+  </si>
+  <si>
+    <t>To cancel installation, press 'esc'.</t>
   </si>
 </sst>
 </file>
@@ -2052,7 +2050,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2090,19 +2088,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2110,19 +2108,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2130,19 +2128,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2150,19 +2148,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" t="s">
         <v>260</v>
       </c>
-      <c r="D5" t="s">
-        <v>263</v>
-      </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2170,19 +2168,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2190,19 +2188,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2210,19 +2208,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2230,19 +2228,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" t="s">
         <v>257</v>
       </c>
-      <c r="C9" t="s">
-        <v>260</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2250,19 +2248,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2270,19 +2268,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2290,19 +2288,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2310,19 +2308,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="C13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2330,19 +2328,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2350,10 +2348,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
@@ -2362,7 +2360,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2370,19 +2368,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2390,19 +2388,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C17" t="s">
-        <v>284</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2410,19 +2408,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2430,19 +2428,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2450,7 +2448,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -2470,19 +2468,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2490,19 +2488,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C22" t="s">
-        <v>311</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2510,19 +2508,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
+        <v>308</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2530,39 +2528,39 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="49.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>316</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>308</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>132</v>
+        <v>317</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>132</v>
+        <v>317</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="49.5">
@@ -2570,19 +2568,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="49.5">
@@ -2590,19 +2588,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="49.5">
@@ -2610,19 +2608,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="66">
@@ -2630,19 +2628,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="66">
@@ -2650,19 +2648,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="49.5">
@@ -2670,19 +2668,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2762,7 +2760,7 @@
         <v>113</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2910,10 +2908,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>13</v>
@@ -2922,7 +2920,7 @@
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2930,19 +2928,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2950,19 +2948,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
         <v>129</v>
       </c>
-      <c r="C45" t="s">
-        <v>130</v>
-      </c>
       <c r="D45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2970,19 +2968,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2990,19 +2988,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C47" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3010,19 +3008,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C48" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3030,19 +3028,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" t="s">
         <v>202</v>
       </c>
-      <c r="C49" t="s">
-        <v>205</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3050,19 +3048,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C50" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3070,19 +3068,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3170,19 +3168,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C56" t="s">
-        <v>216</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3450,19 +3448,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C70" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25">
@@ -3470,19 +3468,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" t="s">
+        <v>221</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25">
@@ -3490,19 +3488,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E72" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25">
@@ -3510,19 +3508,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E73" s="8" t="s">
-        <v>234</v>
-      </c>
       <c r="F73" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25">
@@ -3530,19 +3528,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>234</v>
-      </c>
       <c r="F74" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3550,19 +3548,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C75" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25">
@@ -3570,19 +3568,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25">
@@ -3590,19 +3588,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3676,13 +3674,13 @@
         <v>58</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3690,19 +3688,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3710,10 +3708,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>84</v>
@@ -3722,7 +3720,7 @@
         <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3736,13 +3734,13 @@
         <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3750,19 +3748,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3770,19 +3768,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
         <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3790,19 +3788,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3810,19 +3808,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C88" t="s">
         <v>58</v>
       </c>
       <c r="D88" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F88" t="s">
         <v>176</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F88" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3830,19 +3828,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C89" t="s">
         <v>58</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F89" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3850,19 +3848,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F90" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB05791E-9604-4587-9E5C-E0C6D1E13B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B842A25-6E6D-478C-BD4A-5FEFB6E5FF3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,23 +564,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:skill:explanation:regenerate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:regenerate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;체력 회복&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n10초마다 플레이어의 체력을 회복시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Regenerate&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nEvery 10 seconds, the player's health regenerates.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1617,6 +1601,21 @@
   </si>
   <si>
     <t>To cancel installation, press 'esc'.</t>
+  </si>
+  <si>
+    <t>game:battlefield:inpo:explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘Backpack’에 개수가 같은 아이템은 ‘Quick Slot’에 하나만 등록 가능합니다. (사용 후 개수가 달라지면 다시 등록 가능)</t>
+  </si>
+  <si>
+    <t>‘Backpack’에 개수가 같은 아이템은 ‘Quick Slot’에 하나만 등록 가능합니다. (사용 후 개수가 달라지면 다시 등록 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only one item with the same Count in ‘Backpack’ can be registered in ‘Quick Slot’. (Can be re-registered if the Count changes after use)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2050,7 +2049,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2088,19 +2087,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2108,19 +2107,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2128,19 +2127,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2148,19 +2147,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2168,19 +2167,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2188,19 +2187,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2208,19 +2207,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" t="s">
         <v>253</v>
       </c>
-      <c r="C8" t="s">
-        <v>257</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2228,19 +2227,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2248,19 +2247,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2268,19 +2267,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2288,19 +2287,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2308,19 +2307,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C13" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2328,19 +2327,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2348,10 +2347,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
@@ -2360,7 +2359,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2368,19 +2367,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2388,19 +2387,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2408,19 +2407,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2428,19 +2427,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2448,7 +2447,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -2468,19 +2467,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2488,19 +2487,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C22" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2508,19 +2507,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2528,19 +2527,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2548,19 +2547,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C25" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="49.5">
@@ -2568,19 +2567,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>315</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>304</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>139</v>
+        <v>317</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>140</v>
+        <v>316</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="49.5">
@@ -2588,19 +2587,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="49.5">
@@ -2608,19 +2607,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C28" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="66">
@@ -2628,19 +2627,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="66">
@@ -2648,19 +2647,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="49.5">
@@ -2668,19 +2667,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2760,7 +2759,7 @@
         <v>113</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2968,19 +2967,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
         <v>137</v>
       </c>
-      <c r="C46" t="s">
-        <v>141</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2988,19 +2987,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3008,19 +3007,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3028,19 +3027,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C49" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3048,19 +3047,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3068,19 +3067,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3168,19 +3167,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3448,19 +3447,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25">
@@ -3468,19 +3467,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C71" t="s">
-        <v>221</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25">
@@ -3488,19 +3487,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25">
@@ -3508,19 +3507,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25">
@@ -3528,19 +3527,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3548,19 +3547,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25">
@@ -3568,19 +3567,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25">
@@ -3588,19 +3587,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3674,13 +3673,13 @@
         <v>58</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3688,19 +3687,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3708,10 +3707,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C83" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>84</v>
@@ -3720,7 +3719,7 @@
         <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3734,13 +3733,13 @@
         <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3748,19 +3747,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3768,19 +3767,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
         <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F86" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3788,19 +3787,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C87" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D87" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E87" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3808,19 +3807,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C88" t="s">
         <v>58</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3828,19 +3827,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C89" t="s">
         <v>58</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3848,19 +3847,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C90" t="s">
-        <v>181</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="E90" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B842A25-6E6D-478C-BD4A-5FEFB6E5FF3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CA8427-EAD8-469E-9253-B510E29E89E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="320">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1443,14 +1443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1분동안 살아남기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Survive for 1 minute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:button:resume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1616,6 +1608,16 @@
   <si>
     <t>Only one item with the same Count in ‘Backpack’ can be registered in ‘Quick Slot’. (Can be re-registered if the Count changes after use)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10마리 죽이기!</t>
+  </si>
+  <si>
+    <t>10마리 죽이기!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill 10 creatures!</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1627,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1716,6 +1718,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1740,7 +1748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1764,6 +1772,7 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -2049,7 +2058,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2282,7 +2291,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="17.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2293,13 +2302,13 @@
         <v>273</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>275</v>
+        <v>317</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2307,19 +2316,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2327,19 +2336,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="C14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2347,10 +2356,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
@@ -2359,7 +2368,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2367,19 +2376,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="C16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2387,19 +2396,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2407,19 +2416,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C18" t="s">
-        <v>277</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2427,19 +2436,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2447,7 +2456,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -2467,19 +2476,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2487,19 +2496,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="C22" t="s">
-        <v>304</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2507,19 +2516,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C23" t="s">
-        <v>304</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2527,19 +2536,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2547,19 +2556,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C25" t="s">
-        <v>304</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="49.5">
@@ -2567,19 +2576,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C26" t="s">
-        <v>304</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="E26" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="49.5">

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CA8427-EAD8-469E-9253-B510E29E89E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9BC698-6470-448C-AAA9-ABF74530E9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,18 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:skill:explanation:rageexplosion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;분노 폭발&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지)&lt;/size&gt;\n\n플레이어 주변에 파장을 일으킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Rage Explosion&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage)&lt;/size&gt;\n\nCreates a wave around the player.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:rageexplosion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -732,25 +720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:skill:explanation:bulkingup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;벌크 업&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n플레이어의 최대 체력을 증가 시킵니다.</t>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;벌크 업&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n플레이어의 최대 체력을 증가 시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Bulking Up&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nIncreases the player's maximum health.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:bulkingup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -767,22 +736,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;금화상자&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n필드에 '금화상자' 나올확률이 증가합니다.</t>
-  </si>
-  <si>
-    <t>game:skill:explanation:goldchest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:explanation:potionchest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;금화상자&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n필드에 '금화상자' 나올확률이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Gold Chest&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nThe probability of 'Gold Chest' appearing in the field increases.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1618,6 +1572,52 @@
   </si>
   <si>
     <t>Kill 10 creatures!</t>
+  </si>
+  <si>
+    <t>바위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Installable</t>
+  </si>
+  <si>
+    <t>game:itme:rocknormal:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:rock:name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:rock:short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주는 '바위'를 원하는 지역에 설치합니다.\n설치한 바위는 '1분'뒤에 없어집니다.</t>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주는 '바위'를 원하는 지역에 설치합니다.\n설치한 바위는 '1분'뒤에 없어집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Installs a 'rock' in the desired area to block enemy movement and attacks.\nThe installed rock disappears after '1 minute'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1748,7 +1748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1773,6 +1773,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -2057,14 +2060,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="37.25" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="49.875" customWidth="1"/>
     <col min="5" max="5" width="50.25" customWidth="1"/>
@@ -2096,19 +2099,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2116,19 +2119,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2136,19 +2139,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2156,19 +2159,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" t="s">
         <v>253</v>
-      </c>
-      <c r="D5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F5" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2176,19 +2179,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2196,19 +2199,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2216,19 +2219,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2236,19 +2239,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2256,19 +2259,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2276,19 +2279,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25">
@@ -2296,19 +2299,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2316,19 +2319,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2336,19 +2339,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2356,10 +2359,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C15" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
@@ -2368,7 +2371,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2376,19 +2379,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C16" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2396,19 +2399,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2416,19 +2419,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2436,19 +2439,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2456,7 +2459,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -2476,19 +2479,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2496,19 +2499,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C22" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2516,19 +2519,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C23" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2536,19 +2539,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2556,19 +2559,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C25" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="49.5">
@@ -2576,79 +2579,79 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C26" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="49.5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>315</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>141</v>
+        <v>308</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>141</v>
+        <v>308</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="49.5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="66">
+        <v>312</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="51.75">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>314</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>191</v>
+        <v>317</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="66">
@@ -2656,19 +2659,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="49.5">
@@ -2676,19 +2679,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C31" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2768,7 +2771,7 @@
         <v>113</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2996,19 +2999,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C47" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3016,19 +3019,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3036,19 +3039,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3056,19 +3059,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3076,19 +3079,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3176,19 +3179,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3456,19 +3459,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25">
@@ -3476,19 +3479,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C71" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25">
@@ -3496,19 +3499,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25">
@@ -3516,19 +3519,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25">
@@ -3536,19 +3539,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3556,19 +3559,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C75" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25">
@@ -3576,19 +3579,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25">
@@ -3596,19 +3599,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3682,13 +3685,13 @@
         <v>58</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3696,19 +3699,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3716,10 +3719,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>84</v>
@@ -3728,7 +3731,7 @@
         <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3742,13 +3745,13 @@
         <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3756,19 +3759,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3776,19 +3779,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
         <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F86" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3796,19 +3799,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C87" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D87" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E87" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3816,19 +3819,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C88" t="s">
         <v>58</v>
       </c>
       <c r="D88" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3836,19 +3839,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C89" t="s">
         <v>58</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3856,19 +3859,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9BC698-6470-448C-AAA9-ABF74530E9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8880231-76B9-442C-92AB-0457259C7A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:fireball</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -736,22 +732,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:skill:explanation:potionchest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Potion Chest&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nThe probability of 'Potion Chest' appearing in the field increases.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:regular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:goldchest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -789,18 +769,6 @@
   </si>
   <si>
     <t>Regular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;포션상자&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n필드에 '포션상자' 나올 확률이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;단골&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n필드에 '상점' 나올확률이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Regular&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nThe probability of 'Store' appearing in the field increases.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1556,10 +1524,6 @@
     <t>‘Backpack’에 개수가 같은 아이템은 ‘Quick Slot’에 하나만 등록 가능합니다. (사용 후 개수가 달라지면 다시 등록 가능)</t>
   </si>
   <si>
-    <t>‘Backpack’에 개수가 같은 아이템은 ‘Quick Slot’에 하나만 등록 가능합니다. (사용 후 개수가 달라지면 다시 등록 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Only one item with the same Count in ‘Backpack’ can be registered in ‘Quick Slot’. (Can be re-registered if the Count changes after use)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1617,6 +1581,39 @@
   </si>
   <si>
     <t>Installs a 'rock' in the desired area to block enemy movement and attacks.\nThe installed rock disappears after '1 minute'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘가방’에 개수가 같은 아이템은 ‘Quick Slot’에 하나만 등록 가능합니다. (사용 후 개수가 달라지면 다시 등록 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:rockrare:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주는 '바위'를 원하는 지역에 설치합니다.\n설치한 바위는 '3분'뒤에 없어집니다.</t>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주는 '바위'를 원하는 지역에 설치합니다.\n설치한 바위는 '3분'뒤에 없어집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Installs a 'rock' in the desired area to block enemy movement and attacks.\nThe installed rock disappears after '3 minute'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:rockunique:long</t>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주는 '바위'를 원하는 지역에 설치합니다.\n설치한 바위는 '10분'뒤에 없어집니다.</t>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주는 '바위'를 원하는 지역에 설치합니다.\n설치한 바위는 '10분'뒤에 없어집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Installs a 'rock' in the desired area to block enemy movement and attacks.\nThe installed rock disappears after '10 minute'.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2060,8 +2057,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2099,19 +2096,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2119,19 +2116,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2139,19 +2136,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" t="s">
         <v>233</v>
       </c>
-      <c r="C4" t="s">
-        <v>241</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2159,19 +2156,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2179,19 +2176,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2199,19 +2196,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2219,19 +2216,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2239,19 +2236,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2259,19 +2256,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2279,19 +2276,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25">
@@ -2299,19 +2296,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2319,19 +2316,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2339,19 +2336,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C14" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2359,19 +2356,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2379,19 +2376,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2399,19 +2396,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C17" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2419,19 +2416,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C18" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2439,19 +2436,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2459,19 +2456,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2479,19 +2476,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2499,19 +2496,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C22" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2519,19 +2516,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C23" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2539,19 +2536,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2559,19 +2556,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C25" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="49.5">
@@ -2579,19 +2576,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C26" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2599,19 +2596,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25">
@@ -2619,19 +2616,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C28" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="51.75">
@@ -2639,39 +2636,39 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C29" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="66">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="49.5">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>193</v>
+        <v>314</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>193</v>
+        <v>313</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>180</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="49.5">
@@ -2679,19 +2676,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>316</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>282</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>194</v>
+        <v>318</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>194</v>
+        <v>317</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>195</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2699,19 +2696,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
         <v>15</v>
       </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2719,19 +2716,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
         <v>23</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2739,19 +2736,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
         <v>27</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2759,19 +2756,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2779,19 +2776,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
         <v>91</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2799,19 +2796,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2819,19 +2816,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
         <v>107</v>
       </c>
-      <c r="C38" t="s">
-        <v>108</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2839,19 +2836,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
         <v>109</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2859,19 +2856,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
         <v>114</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2879,19 +2876,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2899,19 +2896,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2919,10 +2916,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>13</v>
@@ -2931,7 +2928,7 @@
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2939,19 +2936,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2959,19 +2956,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" t="s">
         <v>128</v>
       </c>
-      <c r="C45" t="s">
-        <v>129</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2979,19 +2976,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" t="s">
         <v>136</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2999,19 +2996,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
         <v>140</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3019,19 +3016,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" t="s">
         <v>175</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3039,19 +3036,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C49" t="s">
-        <v>186</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3059,19 +3056,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C50" t="s">
-        <v>186</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3079,19 +3076,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3099,19 +3096,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3119,19 +3116,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
         <v>31</v>
       </c>
-      <c r="C53" t="s">
-        <v>32</v>
-      </c>
       <c r="D53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3139,19 +3136,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
         <v>35</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3159,19 +3156,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3179,19 +3176,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C56" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3199,19 +3196,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3219,19 +3216,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3239,19 +3236,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3259,19 +3256,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
         <v>51</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3279,19 +3276,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3299,19 +3296,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3319,19 +3316,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3339,19 +3336,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
         <v>68</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3359,19 +3356,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C65" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="F65" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3379,19 +3376,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3399,19 +3396,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3419,19 +3416,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C68" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3439,19 +3436,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" t="s">
         <v>100</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="F69" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="66">
@@ -3459,19 +3456,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25">
@@ -3479,19 +3476,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25">
@@ -3499,19 +3496,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C72" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25">
@@ -3519,19 +3516,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25">
@@ -3539,19 +3536,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3559,19 +3556,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25">
@@ -3579,19 +3576,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25">
@@ -3599,19 +3596,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3639,19 +3636,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3671,7 +3668,7 @@
         <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3679,19 +3676,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3699,19 +3696,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3719,19 +3716,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" t="s">
         <v>146</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3739,19 +3736,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" t="s">
         <v>85</v>
       </c>
-      <c r="C84" t="s">
-        <v>86</v>
-      </c>
       <c r="D84" t="s">
+        <v>162</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="F84" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3759,19 +3756,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3779,19 +3776,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3799,19 +3796,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3819,19 +3816,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C88" t="s">
-        <v>58</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="E88" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3839,19 +3836,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D89" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F89" t="s">
         <v>170</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F89" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3859,19 +3856,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D90" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F90" t="s">
         <v>172</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F90" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6A0211-4C44-4485-9ECA-696468CBAEA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0189D5B5-8FCE-4537-BCD1-BCD9936A2FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="148">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,7 +564,32 @@
     <t>asd</t>
   </si>
   <si>
-    <t>asd</t>
+    <t>game:itme:healrock:name</t>
+  </si>
+  <si>
+    <t>힐링 스톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Healing Stone</t>
+  </si>
+  <si>
+    <t>game:itme:healrocknormal:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 플레이어 체력을 회복해 주는 '힐링 스톤'을 원하는 지역에 설치합니다.\n설치한 힐링 스톤은 '1분'뒤에 없어집니다.</t>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 플레이어 체력을 회복해 주는 '힐링 스톤'을 원하는 지역에 설치합니다.\n설치한 힐링 스톤은 '1분'뒤에 없어집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install a 'Healing Stone' that blocks enemy movement and attacks while healing nearby player health in the desired area.\nThe installed Healing Stone disappears after '1 minute'.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +600,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,6 +654,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -653,13 +684,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -677,6 +707,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -962,8 +999,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -977,1912 +1014,1912 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+        <v>141</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="B42" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="B43" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="B44" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="B45" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="B46" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="B47" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="B48" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="B49" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="B50" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C51" t="s">
-        <v>139</v>
-      </c>
-      <c r="D51" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="B51" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E52" t="s">
-        <v>139</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="B52" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="B53" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D54" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="B54" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" t="s">
-        <v>139</v>
-      </c>
-      <c r="D55" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="B55" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>139</v>
-      </c>
-      <c r="C56" t="s">
-        <v>139</v>
-      </c>
-      <c r="D56" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" t="s">
-        <v>139</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="B56" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" t="s">
-        <v>139</v>
-      </c>
-      <c r="D57" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" t="s">
-        <v>139</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="B57" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" t="s">
-        <v>139</v>
-      </c>
-      <c r="D58" t="s">
-        <v>139</v>
-      </c>
-      <c r="E58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="B58" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>139</v>
-      </c>
-      <c r="C59" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" t="s">
-        <v>139</v>
-      </c>
-      <c r="E59" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="B59" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" t="s">
-        <v>139</v>
-      </c>
-      <c r="D60" t="s">
-        <v>139</v>
-      </c>
-      <c r="E60" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="B60" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="B61" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" t="s">
-        <v>139</v>
-      </c>
-      <c r="D62" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="B62" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="B63" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="B64" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65" t="s">
-        <v>139</v>
-      </c>
-      <c r="E65" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="B65" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>139</v>
-      </c>
-      <c r="C66" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66" t="s">
-        <v>139</v>
-      </c>
-      <c r="E66" t="s">
-        <v>139</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="B66" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" t="s">
-        <v>139</v>
-      </c>
-      <c r="D67" t="s">
-        <v>139</v>
-      </c>
-      <c r="E67" t="s">
-        <v>139</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="B67" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68" t="s">
-        <v>139</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="B68" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="B69" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" t="s">
-        <v>139</v>
-      </c>
-      <c r="D70" t="s">
-        <v>139</v>
-      </c>
-      <c r="E70" t="s">
-        <v>139</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="B70" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F70" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71" t="s">
-        <v>139</v>
-      </c>
-      <c r="D71" t="s">
-        <v>139</v>
-      </c>
-      <c r="E71" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="B71" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72" t="s">
-        <v>139</v>
-      </c>
-      <c r="E72" t="s">
-        <v>139</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="B72" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F72" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" t="s">
-        <v>139</v>
-      </c>
-      <c r="E73" t="s">
-        <v>139</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="B73" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>139</v>
-      </c>
-      <c r="C74" t="s">
-        <v>139</v>
-      </c>
-      <c r="D74" t="s">
-        <v>139</v>
-      </c>
-      <c r="E74" t="s">
-        <v>139</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="B74" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F74" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>139</v>
-      </c>
-      <c r="C75" t="s">
-        <v>139</v>
-      </c>
-      <c r="D75" t="s">
-        <v>139</v>
-      </c>
-      <c r="E75" t="s">
-        <v>139</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="B75" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F75" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" t="s">
-        <v>139</v>
-      </c>
-      <c r="D76" t="s">
-        <v>139</v>
-      </c>
-      <c r="E76" t="s">
-        <v>139</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="B76" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F76" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" t="s">
-        <v>139</v>
-      </c>
-      <c r="D77" t="s">
-        <v>139</v>
-      </c>
-      <c r="E77" t="s">
-        <v>139</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="B77" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" t="s">
-        <v>139</v>
-      </c>
-      <c r="D78" t="s">
-        <v>139</v>
-      </c>
-      <c r="E78" t="s">
-        <v>139</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="B78" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>139</v>
-      </c>
-      <c r="C79" t="s">
-        <v>139</v>
-      </c>
-      <c r="D79" t="s">
-        <v>139</v>
-      </c>
-      <c r="E79" t="s">
-        <v>139</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="B79" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>139</v>
-      </c>
-      <c r="C80" t="s">
-        <v>139</v>
-      </c>
-      <c r="D80" t="s">
-        <v>139</v>
-      </c>
-      <c r="E80" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="B80" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>139</v>
-      </c>
-      <c r="C81" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" t="s">
-        <v>139</v>
-      </c>
-      <c r="E81" t="s">
-        <v>139</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="B81" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>139</v>
-      </c>
-      <c r="C82" t="s">
-        <v>139</v>
-      </c>
-      <c r="D82" t="s">
-        <v>139</v>
-      </c>
-      <c r="E82" t="s">
-        <v>139</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="B82" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F82" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>139</v>
-      </c>
-      <c r="C83" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83" t="s">
-        <v>139</v>
-      </c>
-      <c r="E83" t="s">
-        <v>139</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="B83" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C84" t="s">
-        <v>139</v>
-      </c>
-      <c r="D84" t="s">
-        <v>139</v>
-      </c>
-      <c r="E84" t="s">
-        <v>139</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="B84" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>139</v>
-      </c>
-      <c r="C85" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" t="s">
-        <v>139</v>
-      </c>
-      <c r="E85" t="s">
-        <v>139</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="B85" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>139</v>
-      </c>
-      <c r="C86" t="s">
-        <v>139</v>
-      </c>
-      <c r="D86" t="s">
-        <v>139</v>
-      </c>
-      <c r="E86" t="s">
-        <v>139</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="B86" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F86" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87" t="s">
-        <v>139</v>
-      </c>
-      <c r="D87" t="s">
-        <v>139</v>
-      </c>
-      <c r="E87" t="s">
-        <v>139</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="B87" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>139</v>
-      </c>
-      <c r="C88" t="s">
-        <v>139</v>
-      </c>
-      <c r="D88" t="s">
-        <v>139</v>
-      </c>
-      <c r="E88" t="s">
-        <v>139</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="B88" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F88" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>139</v>
-      </c>
-      <c r="C89" t="s">
-        <v>139</v>
-      </c>
-      <c r="D89" t="s">
-        <v>139</v>
-      </c>
-      <c r="E89" t="s">
-        <v>139</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="B89" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F89" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>139</v>
-      </c>
-      <c r="C90" t="s">
-        <v>139</v>
-      </c>
-      <c r="D90" t="s">
-        <v>139</v>
-      </c>
-      <c r="E90" t="s">
-        <v>139</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="B90" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>139</v>
-      </c>
-      <c r="C91" t="s">
-        <v>139</v>
-      </c>
-      <c r="D91" t="s">
-        <v>139</v>
-      </c>
-      <c r="E91" t="s">
-        <v>139</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="B91" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F91" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>139</v>
-      </c>
-      <c r="C92" t="s">
-        <v>139</v>
-      </c>
-      <c r="D92" t="s">
-        <v>139</v>
-      </c>
-      <c r="E92" t="s">
-        <v>139</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="B92" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F92" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>139</v>
-      </c>
-      <c r="C93" t="s">
-        <v>139</v>
-      </c>
-      <c r="D93" t="s">
-        <v>139</v>
-      </c>
-      <c r="E93" t="s">
-        <v>139</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="B93" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F93" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>139</v>
-      </c>
-      <c r="C94" t="s">
-        <v>139</v>
-      </c>
-      <c r="D94" t="s">
-        <v>139</v>
-      </c>
-      <c r="E94" t="s">
-        <v>139</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="B94" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F94" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
     </row>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0189D5B5-8FCE-4537-BCD1-BCD9936A2FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CEE7FB-F813-4A9C-963A-DD5F59F130BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="169">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,14 +582,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적의 이동과 공격을 막아주며 근처에 있는 플레이어 체력을 회복해 주는 '힐링 스톤'을 원하는 지역에 설치합니다.\n설치한 힐링 스톤은 '1분'뒤에 없어집니다.</t>
-  </si>
-  <si>
-    <t>적의 이동과 공격을 막아주며 근처에 있는 플레이어 체력을 회복해 주는 '힐링 스톤'을 원하는 지역에 설치합니다.\n설치한 힐링 스톤은 '1분'뒤에 없어집니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Install a 'Healing Stone' that blocks enemy movement and attacks while healing nearby player health in the desired area.\nThe installed Healing Stone disappears after '1 minute'.</t>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 플레이어 체력을 회복해 주는 '힐링 스톤'을 원하는 지역에 설치합니다.\n설치한 힐링 스톤은 '1분'뒤에 없어집니다.\n(회복량 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 플레이어 체력을 회복해 주는 '힐링 스톤'을 원하는 지역에 설치합니다.\n설치한 힐링 스톤은 '1분'뒤에 없어집니다.\n(회복량 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install a 'Healing Stone' that blocks enemy movement and attacks while healing nearby player health in the desired area.\nThe installed Healing Stone disappears after '1 minute'.\n(Recovery amount 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:healrockrare:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install a 'Healing Stone' that blocks enemy movement and attacks while healing nearby player health in the desired area.\nThe installed Healing Stone disappears after '3 minute'.\n(Recovery amount 4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 플레이어 체력을 회복해 주는 '힐링 스톤'을 원하는 지역에 설치합니다.\n설치한 힐링 스톤은 '3분'뒤에 없어집니다.\n(회복량 4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:healrockunique:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 플레이어 체력을 회복해 주는 '힐링 스톤'을 원하는 지역에 설치합니다.\n설치한 힐링 스톤은 '10분'뒤에 없어집니다.\n(회복량 5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install a 'Healing Stone' that blocks enemy movement and attacks while healing nearby player health in the desired area.\nThe installed Healing Stone disappears after '10 minute'.\n(Recovery amount 5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:icerock:name</t>
+  </si>
+  <si>
+    <t>아이스 스톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:icerocknormal:long</t>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 적들의 이동속도를 감소시키는 '아이스 스톤'을 원하는 지역에 설치합니다.\n설치한 아이스 스톤은 '1분'뒤에 없어집니다.\n(감소량 50%)</t>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 적들의 이동속도를 감소시키는 '아이스 스톤'을 원하는 지역에 설치합니다.\n설치한 아이스 스톤은 '1분'뒤에 없어집니다.\n(감소량 50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install a 'Ice Stone' that blocks enemy movement and attacks while reducing the movement speed of nearby enemies in the desired area.\nThe installed Ice Stone disappears after '1 minute.'\n(Reduces speed by 50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 적들의 이동속도를 감소시키는 '아이스 스톤'을 원하는 지역에 설치합니다.\n설치한 아이스 스톤은 '3분'뒤에 없어집니다.\n(감소량 50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install a 'Ice Stone' that blocks enemy movement and attacks while reducing the movement speed of nearby enemies in the desired area.\nThe installed Ice Stone disappears after '3 minute.'\n(Reduces speed by 50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install a 'Ice Stone' that blocks enemy movement and attacks while reducing the movement speed of nearby enemies in the desired area.\nThe installed Ice Stone disappears after '10 minute.'\n(Reduces speed by 50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:icerockrare:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:icerockunique:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 적들의 이동속도를 감소시키는 '아이스 스톤'을 원하는 지역에 설치합니다.\n설치한 아이스 스톤은 '10분'뒤에 없어집니다.\n(감소량 50%)</t>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 적들의 이동속도를 감소시키는 '아이스 스톤'을 원하는 지역에 설치합니다.\n설치한 아이스 스톤은 '10분'뒤에 없어집니다.\n(감소량 50%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -709,11 +790,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -999,8 +1083,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1813,163 +1897,163 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="11" t="s">
         <v>144</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>139</v>
+      <c r="B43" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>139</v>
+      <c r="B45" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>139</v>
+      <c r="B47" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48" s="10" t="s">
+      <c r="B48" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1977,19 +2061,19 @@
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="10" t="s">
+      <c r="B49" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1997,19 +2081,19 @@
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" s="10" t="s">
+      <c r="B50" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2017,19 +2101,19 @@
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" s="10" t="s">
+      <c r="B51" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2037,19 +2121,19 @@
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F52" s="10" t="s">
+      <c r="B52" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2057,19 +2141,19 @@
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="10" t="s">
+      <c r="B53" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2077,19 +2161,19 @@
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="10" t="s">
+      <c r="B54" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2097,19 +2181,19 @@
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" s="10" t="s">
+      <c r="B55" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2117,19 +2201,19 @@
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F56" s="10" t="s">
+      <c r="B56" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2137,19 +2221,19 @@
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F57" s="10" t="s">
+      <c r="B57" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2157,19 +2241,19 @@
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58" s="10" t="s">
+      <c r="B58" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2177,19 +2261,19 @@
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" s="10" t="s">
+      <c r="B59" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2197,19 +2281,19 @@
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="10" t="s">
+      <c r="B60" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2217,19 +2301,19 @@
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" s="10" t="s">
+      <c r="B61" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2237,19 +2321,19 @@
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="10" t="s">
+      <c r="B62" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2257,19 +2341,19 @@
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="10" t="s">
+      <c r="B63" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2277,19 +2361,19 @@
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F64" s="10" t="s">
+      <c r="B64" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2297,19 +2381,19 @@
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" s="10" t="s">
+      <c r="B65" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2317,19 +2401,19 @@
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F66" s="10" t="s">
+      <c r="B66" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2337,19 +2421,19 @@
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F67" s="10" t="s">
+      <c r="B67" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2357,19 +2441,19 @@
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F68" s="10" t="s">
+      <c r="B68" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2377,19 +2461,19 @@
       <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" s="10" t="s">
+      <c r="B69" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2397,19 +2481,19 @@
       <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F70" s="10" t="s">
+      <c r="B70" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F70" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2417,19 +2501,19 @@
       <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" s="10" t="s">
+      <c r="B71" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2437,19 +2521,19 @@
       <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F72" s="10" t="s">
+      <c r="B72" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F72" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2457,19 +2541,19 @@
       <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F73" s="10" t="s">
+      <c r="B73" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F73" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2477,19 +2561,19 @@
       <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F74" s="10" t="s">
+      <c r="B74" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F74" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2497,19 +2581,19 @@
       <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F75" s="10" t="s">
+      <c r="B75" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F75" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2517,19 +2601,19 @@
       <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F76" s="10" t="s">
+      <c r="B76" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F76" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2537,19 +2621,19 @@
       <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F77" s="10" t="s">
+      <c r="B77" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2557,19 +2641,19 @@
       <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F78" s="10" t="s">
+      <c r="B78" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F78" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2577,19 +2661,19 @@
       <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F79" s="10" t="s">
+      <c r="B79" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2597,19 +2681,19 @@
       <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" s="10" t="s">
+      <c r="B80" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2617,19 +2701,19 @@
       <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F81" s="10" t="s">
+      <c r="B81" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2637,19 +2721,19 @@
       <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F82" s="10" t="s">
+      <c r="B82" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F82" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2657,19 +2741,19 @@
       <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F83" s="10" t="s">
+      <c r="B83" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2677,19 +2761,19 @@
       <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F84" s="10" t="s">
+      <c r="B84" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F84" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2697,19 +2781,19 @@
       <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F85" s="10" t="s">
+      <c r="B85" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2717,19 +2801,19 @@
       <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F86" s="10" t="s">
+      <c r="B86" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F86" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2737,19 +2821,19 @@
       <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F87" s="10" t="s">
+      <c r="B87" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F87" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2757,19 +2841,19 @@
       <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F88" s="10" t="s">
+      <c r="B88" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F88" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2777,19 +2861,19 @@
       <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F89" s="10" t="s">
+      <c r="B89" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F89" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2797,19 +2881,19 @@
       <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F90" s="10" t="s">
+      <c r="B90" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2817,19 +2901,19 @@
       <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F91" s="10" t="s">
+      <c r="B91" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F91" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2837,19 +2921,19 @@
       <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F92" s="10" t="s">
+      <c r="B92" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F92" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2857,19 +2941,19 @@
       <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F93" s="10" t="s">
+      <c r="B93" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F93" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2877,19 +2961,19 @@
       <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F94" s="10" t="s">
+      <c r="B94" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F94" s="11" t="s">
         <v>139</v>
       </c>
     </row>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CEE7FB-F813-4A9C-963A-DD5F59F130BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF362AC-F529-490A-ADC3-479F1AE213FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="184">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,14 +372,6 @@
     <t>Kill 10 creatures!</t>
   </si>
   <si>
-    <t>바위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장르</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,106 +563,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>game:itme:healrocknormal:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 플레이어 체력을 회복해 주는 '힐링 스톤'을 원하는 지역에 설치합니다.\n설치한 힐링 스톤은 '1분'뒤에 없어집니다.\n(회복량 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 플레이어 체력을 회복해 주는 '힐링 스톤'을 원하는 지역에 설치합니다.\n설치한 힐링 스톤은 '1분'뒤에 없어집니다.\n(회복량 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install a 'Healing Stone' that blocks enemy movement and attacks while healing nearby player health in the desired area.\nThe installed Healing Stone disappears after '1 minute'.\n(Recovery amount 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:healrockrare:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install a 'Healing Stone' that blocks enemy movement and attacks while healing nearby player health in the desired area.\nThe installed Healing Stone disappears after '3 minute'.\n(Recovery amount 4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 플레이어 체력을 회복해 주는 '힐링 스톤'을 원하는 지역에 설치합니다.\n설치한 힐링 스톤은 '3분'뒤에 없어집니다.\n(회복량 4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:healrockunique:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 플레이어 체력을 회복해 주는 '힐링 스톤'을 원하는 지역에 설치합니다.\n설치한 힐링 스톤은 '10분'뒤에 없어집니다.\n(회복량 5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install a 'Healing Stone' that blocks enemy movement and attacks while healing nearby player health in the desired area.\nThe installed Healing Stone disappears after '10 minute'.\n(Recovery amount 5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 스톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:icerocknormal:long</t>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 적들의 이동속도를 감소시키는 '아이스 스톤'을 원하는 지역에 설치합니다.\n설치한 아이스 스톤은 '1분'뒤에 없어집니다.\n(감소량 50%)</t>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 적들의 이동속도를 감소시키는 '아이스 스톤'을 원하는 지역에 설치합니다.\n설치한 아이스 스톤은 '1분'뒤에 없어집니다.\n(감소량 50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install a 'Ice Stone' that blocks enemy movement and attacks while reducing the movement speed of nearby enemies in the desired area.\nThe installed Ice Stone disappears after '1 minute.'\n(Reduces speed by 50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 적들의 이동속도를 감소시키는 '아이스 스톤'을 원하는 지역에 설치합니다.\n설치한 아이스 스톤은 '3분'뒤에 없어집니다.\n(감소량 50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install a 'Ice Stone' that blocks enemy movement and attacks while reducing the movement speed of nearby enemies in the desired area.\nThe installed Ice Stone disappears after '3 minute.'\n(Reduces speed by 50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install a 'Ice Stone' that blocks enemy movement and attacks while reducing the movement speed of nearby enemies in the desired area.\nThe installed Ice Stone disappears after '10 minute.'\n(Reduces speed by 50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:icerockrare:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:icerockunique:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 적들의 이동속도를 감소시키는 '아이스 스톤'을 원하는 지역에 설치합니다.\n설치한 아이스 스톤은 '10분'뒤에 없어집니다.\n(감소량 50%)</t>
+  </si>
+  <si>
+    <t>적의 이동과 공격을 막아주며 근처에 있는 적들의 이동속도를 감소시키는 '아이스 스톤'을 원하는 지역에 설치합니다.\n설치한 아이스 스톤은 '10분'뒤에 없어집니다.\n(감소량 50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:icerock:name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:scarecrowbot:name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허수아비 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scarecrow Bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:scarecrowbotnomal:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:scarecrowbotrare:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:scarecrowbotunique:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Healing Stone</t>
-  </si>
-  <si>
-    <t>game:itme:healrocknormal:long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적의 이동과 공격을 막아주며 근처에 있는 플레이어 체력을 회복해 주는 '힐링 스톤'을 원하는 지역에 설치합니다.\n설치한 힐링 스톤은 '1분'뒤에 없어집니다.\n(회복량 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적의 이동과 공격을 막아주며 근처에 있는 플레이어 체력을 회복해 주는 '힐링 스톤'을 원하는 지역에 설치합니다.\n설치한 힐링 스톤은 '1분'뒤에 없어집니다.\n(회복량 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Install a 'Healing Stone' that blocks enemy movement and attacks while healing nearby player health in the desired area.\nThe installed Healing Stone disappears after '1 minute'.\n(Recovery amount 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:itme:healrockrare:long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Install a 'Healing Stone' that blocks enemy movement and attacks while healing nearby player health in the desired area.\nThe installed Healing Stone disappears after '3 minute'.\n(Recovery amount 4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적의 이동과 공격을 막아주며 근처에 있는 플레이어 체력을 회복해 주는 '힐링 스톤'을 원하는 지역에 설치합니다.\n설치한 힐링 스톤은 '3분'뒤에 없어집니다.\n(회복량 4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:itme:healrockunique:long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적의 이동과 공격을 막아주며 근처에 있는 플레이어 체력을 회복해 주는 '힐링 스톤'을 원하는 지역에 설치합니다.\n설치한 힐링 스톤은 '10분'뒤에 없어집니다.\n(회복량 5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Install a 'Healing Stone' that blocks enemy movement and attacks while healing nearby player health in the desired area.\nThe installed Healing Stone disappears after '10 minute'.\n(Recovery amount 5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:itme:icerock:name</t>
-  </si>
-  <si>
-    <t>아이스 스톤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ice Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:itme:icerocknormal:long</t>
-  </si>
-  <si>
-    <t>적의 이동과 공격을 막아주며 근처에 있는 적들의 이동속도를 감소시키는 '아이스 스톤'을 원하는 지역에 설치합니다.\n설치한 아이스 스톤은 '1분'뒤에 없어집니다.\n(감소량 50%)</t>
-  </si>
-  <si>
-    <t>적의 이동과 공격을 막아주며 근처에 있는 적들의 이동속도를 감소시키는 '아이스 스톤'을 원하는 지역에 설치합니다.\n설치한 아이스 스톤은 '1분'뒤에 없어집니다.\n(감소량 50%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Install a 'Ice Stone' that blocks enemy movement and attacks while reducing the movement speed of nearby enemies in the desired area.\nThe installed Ice Stone disappears after '1 minute.'\n(Reduces speed by 50%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적의 이동과 공격을 막아주며 근처에 있는 적들의 이동속도를 감소시키는 '아이스 스톤'을 원하는 지역에 설치합니다.\n설치한 아이스 스톤은 '3분'뒤에 없어집니다.\n(감소량 50%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Install a 'Ice Stone' that blocks enemy movement and attacks while reducing the movement speed of nearby enemies in the desired area.\nThe installed Ice Stone disappears after '3 minute.'\n(Reduces speed by 50%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Install a 'Ice Stone' that blocks enemy movement and attacks while reducing the movement speed of nearby enemies in the desired area.\nThe installed Ice Stone disappears after '10 minute.'\n(Reduces speed by 50%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:itme:icerockrare:long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:itme:icerockunique:long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적의 이동과 공격을 막아주며 근처에 있는 적들의 이동속도를 감소시키는 '아이스 스톤'을 원하는 지역에 설치합니다.\n설치한 아이스 스톤은 '10분'뒤에 없어집니다.\n(감소량 50%)</t>
-  </si>
-  <si>
-    <t>적의 이동과 공격을 막아주며 근처에 있는 적들의 이동속도를 감소시키는 '아이스 스톤'을 원하는 지역에 설치합니다.\n설치한 아이스 스톤은 '10분'뒤에 없어집니다.\n(감소량 50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처의 적들을 도발하여 자신을 공격하게 만드는 '허수아비'를 설치합니다.\n설치한 허수아비 주변에는 스톤을 설치할 수 없으며, 체력이 0이 되면 없어집니다.\n(허수아비 체력 : 200)</t>
+  </si>
+  <si>
+    <t>근처의 적들을 도발하여 자신을 공격하게 만드는 '허수아비'를 설치합니다.\n설치한 허수아비 주변에는 스톤을 설치할 수 없으며, 체력이 0이 되면 없어집니다.\n(허수아비 체력 : 200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처의 적들을 도발하여 자신을 공격하게 만드는 '허수아비'를 설치합니다.\n설치한 허수아비 주변에는 스톤을 설치할 수 없으며, 체력이 0이 되면 없어집니다.\n(허수아비 체력 : 600)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처의 적들을 도발하여 자신을 공격하게 만드는 '허수아비'를 설치합니다.\n설치한 허수아비 주변에는 스톤을 설치할 수 없으며, 체력이 0이 되면 없어집니다.\n(허수아비 체력 : 1500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We install a 'scarecrow' that provokes nearby enemies to attack it.\nThe scarecrow cannot have stones placed around it, and it disappears when its health reaches 0.\n(Scarecrow Health: 200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We install a 'scarecrow' that provokes nearby enemies to attack it.\nThe scarecrow cannot have stones placed around it, and it disappears when its health reaches 0.\n(Scarecrow Health: 600)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We install a 'scarecrow' that provokes nearby enemies to attack it.\nThe scarecrow cannot have stones placed around it, and it disappears when its health reaches 0.\n(Scarecrow Health: 1500)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1083,8 +1144,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1608,10 +1669,10 @@
         <v>72</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>84</v>
@@ -1622,19 +1683,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1642,19 +1703,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
@@ -1662,19 +1723,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -1682,19 +1743,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -1702,19 +1763,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1722,19 +1783,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="F32" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1742,19 +1803,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1762,19 +1823,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1782,19 +1843,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1802,19 +1863,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1822,19 +1883,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1842,19 +1903,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1862,19 +1923,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1882,19 +1943,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="69" x14ac:dyDescent="0.3">
@@ -1902,19 +1963,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="F41" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1922,19 +1983,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1942,19 +2003,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1962,19 +2023,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="69" x14ac:dyDescent="0.3">
@@ -1982,19 +2043,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2002,19 +2063,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2022,19 +2083,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2042,79 +2103,79 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>139</v>
+        <v>180</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2122,19 +2183,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2142,19 +2203,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2162,19 +2223,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2182,19 +2243,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2202,19 +2263,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2222,19 +2283,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2242,19 +2303,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2262,19 +2323,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2282,19 +2343,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2302,19 +2363,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2322,19 +2383,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2342,19 +2403,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2362,19 +2423,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2382,19 +2443,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2402,19 +2463,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2422,19 +2483,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2442,19 +2503,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2462,19 +2523,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2482,19 +2543,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2502,19 +2563,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2522,19 +2583,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2542,19 +2603,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2562,19 +2623,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2582,19 +2643,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2602,19 +2663,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2622,19 +2683,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2642,19 +2703,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2662,19 +2723,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2682,19 +2743,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2702,19 +2763,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2722,19 +2783,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2742,19 +2803,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2762,19 +2823,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2782,19 +2843,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2802,19 +2863,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2822,19 +2883,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2842,19 +2903,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2862,19 +2923,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -2882,19 +2943,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2902,19 +2963,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -2922,19 +2983,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2942,19 +3003,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -2962,19 +3023,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF362AC-F529-490A-ADC3-479F1AE213FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5569BC51-4A6C-46D8-B7BA-92362EA2F0E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="195">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -732,6 +732,49 @@
   </si>
   <si>
     <t>We install a 'scarecrow' that provokes nearby enemies to attack it.\nThe scarecrow cannot have stones placed around it, and it disappears when its health reaches 0.\n(Scarecrow Health: 1500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:dragonflypet:name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:dragonflypet:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠자리 펫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragonfly Pet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 주변을 돌아다니면서 함께 공격하는 '잠자리'를 소환합니다.\n잠자리는 60초 뒤에 사라집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We summon a 'dragonfly' that roams around the player and attacks together.\nThe dragonfly disappears after 60 seconds.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:consumable:short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumable</t>
+  </si>
+  <si>
+    <t>장르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1144,8 +1187,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2178,24 +2221,24 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>137</v>
+        <v>189</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2203,39 +2246,39 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>137</v>
+        <v>194</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5569BC51-4A6C-46D8-B7BA-92362EA2F0E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343719DA-2AA0-4C3C-A02F-8E2E812F448A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="238">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -775,6 +775,171 @@
   </si>
   <si>
     <t>소모품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:healthamplification:name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 증폭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:passive:short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive Skill</t>
+  </si>
+  <si>
+    <t>game:skill:healthamplification:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 레벨 1당 최대체력 '10' 증가합니다.\n현재 증가량 :</t>
+  </si>
+  <si>
+    <t>스킬 레벨 1당 최대체력 '10' 증가합니다.\n현재 증가량 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward Booster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:rewardbooster:name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 부스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:rewardbooster:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 레벨 1당 클리어 보상 골드가 '3%' 증가합니다.\n현재 증가량 :</t>
+  </si>
+  <si>
+    <t>스킬 레벨 1당 클리어 보상 골드가 '3%' 증가합니다.\n현재 증가량 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health Amplification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stamina Amplification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:staminaamplification:name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테미나 증폭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:staminaamplification:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 레벨 1당 스테미나가 '5'증가합니다.\n현재 증가량 :</t>
+  </si>
+  <si>
+    <t>스킬 레벨 1당 스테미나가 '5'증가합니다.\n현재 증가량 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear reward gold increases by '3%' per skill level.\nCurrent increase :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum health increases by '10' per skill level.\nCurrent increase amount :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stamina increases by '5' per skill level.\nCurrent increase amount :</t>
+  </si>
+  <si>
+    <t>가지고 있는 돈</t>
+  </si>
+  <si>
+    <t>money you have</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:info:moneyyouhave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmae:store:button:reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 초기화 비용은 500골드입니다.</t>
+  </si>
+  <si>
+    <t>game:info:resetcost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The cost of skill reset is 500 gold.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refundable Gold\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:info:refundablegold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 가능한 골드\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1187,7 +1352,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
@@ -2281,24 +2446,24 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>137</v>
+        <v>196</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2306,39 +2471,39 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2346,59 +2511,59 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>137</v>
+        <v>216</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2406,19 +2571,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>137</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2426,19 +2591,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2446,19 +2611,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2466,19 +2631,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2486,19 +2651,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>137</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2532,7 +2697,7 @@
         <v>137</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>137</v>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343719DA-2AA0-4C3C-A02F-8E2E812F448A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FBD9C1-C4C7-41AF-BA07-E13DDFA12A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="242">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -940,6 +940,20 @@
   </si>
   <si>
     <t>환불 가능한 골드\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New items appear!\n\nNow available in stores!</t>
+  </si>
+  <si>
+    <t>새로운 아이템 등장 !\n\n이제 상점에서 구입이 가능합니다 !</t>
+  </si>
+  <si>
+    <t>game:popup:info:newitem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1353,7 +1367,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2666,24 +2680,24 @@
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FBD9C1-C4C7-41AF-BA07-E13DDFA12A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C795AFA-4F66-40A5-BF24-414880827E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="243">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,129 +71,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:popup:stagetitle1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:stagetitle2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:stagetitle3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:stagetitle4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:stagetitle5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:stagetitle6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:stagetitle7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:stagetitle8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:stagetitle9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:stagetitle10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타이틀</t>
   </si>
   <si>
-    <t>스테이지 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:popup:stagemesstion1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -954,6 +834,176 @@
   </si>
   <si>
     <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eliminate 1 Enemies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF292C32"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF292C32"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF292C32"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF292C32"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF292C32"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처치</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 1마리 처치</t>
+  </si>
+  <si>
+    <t>game:popup:eliminate2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 2마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eliminate 2 Enemies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 3마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 5마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 4마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 6마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 7마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 8마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 9마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 10마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eliminate 3 Enemies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eliminate 4 Enemies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eliminate 5 Enemies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eliminate 6 Enemies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eliminate 7 Enemies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eliminate 8 Enemies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eliminate 9 Enemies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eliminate 10 Enemies</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,7 +1014,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1024,6 +1074,26 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF292C32"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF292C32"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF292C32"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1048,7 +1118,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1082,6 +1152,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -1366,8 +1437,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1405,19 +1476,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
+      <c r="D2" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1425,19 +1496,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1445,19 +1516,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1465,19 +1536,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1485,19 +1556,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1505,19 +1576,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1525,19 +1596,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1545,19 +1616,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>39</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1565,19 +1636,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1585,19 +1656,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1605,19 +1676,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1625,19 +1696,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1645,19 +1716,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1665,10 +1736,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>7</v>
@@ -1677,7 +1748,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1685,19 +1756,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1705,19 +1776,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1725,19 +1796,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1745,19 +1816,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1765,7 +1836,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
@@ -1785,19 +1856,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1805,19 +1876,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1825,19 +1896,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1845,19 +1916,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1865,19 +1936,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -1885,19 +1956,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1905,19 +1976,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1925,19 +1996,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
@@ -1945,19 +2016,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -1965,19 +2036,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -1985,19 +2056,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2005,19 +2076,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2025,19 +2096,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2045,19 +2116,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2065,19 +2136,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2085,19 +2156,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2105,19 +2176,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2125,19 +2196,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2145,19 +2216,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2165,19 +2236,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="69" x14ac:dyDescent="0.3">
@@ -2185,19 +2256,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2205,19 +2276,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2225,19 +2296,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2245,19 +2316,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="69" x14ac:dyDescent="0.3">
@@ -2265,19 +2336,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2285,19 +2356,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2305,19 +2376,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2325,19 +2396,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2345,19 +2416,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2365,19 +2436,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2385,19 +2456,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
@@ -2405,19 +2476,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2425,19 +2496,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2445,19 +2516,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2465,19 +2536,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2485,19 +2556,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2505,19 +2576,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2525,19 +2596,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2545,19 +2616,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2565,19 +2636,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2585,19 +2656,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2605,19 +2676,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2625,19 +2696,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2645,19 +2716,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2665,19 +2736,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2685,19 +2756,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2705,19 +2776,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2725,19 +2796,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2745,19 +2816,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2765,19 +2836,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2785,19 +2856,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2805,19 +2876,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2825,19 +2896,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2845,19 +2916,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2865,19 +2936,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2885,19 +2956,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2905,19 +2976,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2925,19 +2996,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2945,19 +3016,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2965,19 +3036,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2985,19 +3056,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3005,19 +3076,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3025,19 +3096,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3045,19 +3116,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3065,19 +3136,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3085,19 +3156,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3105,19 +3176,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3125,19 +3196,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3145,19 +3216,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3165,19 +3236,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3185,19 +3256,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3205,19 +3276,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3225,19 +3296,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3245,19 +3316,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C795AFA-4F66-40A5-BF24-414880827E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04CEF13-972F-4227-8480-52F33C6149B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="297">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -777,10 +777,6 @@
   </si>
   <si>
     <t>정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1004,6 +1000,704 @@
   </si>
   <si>
     <t>Eliminate 10 Enemies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:newstart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 파일을 지우고\n새로 시작하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to delete the existing file\nand start anew?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료 하시겠습니까?</t>
+  </si>
+  <si>
+    <t>Are you sure you want to quit?</t>
+  </si>
+  <si>
+    <t>game:popup:exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:chief:dialogue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:chief:dialogue2</t>
+  </si>
+  <si>
+    <t>game:chief:dialogue3</t>
+  </si>
+  <si>
+    <t>game:chief:dialogue4</t>
+  </si>
+  <si>
+    <t>game:chief:dialogue5</t>
+  </si>
+  <si>
+    <t>game:chief:dialogue6</t>
+  </si>
+  <si>
+    <t>game:chief:dialogue7</t>
+  </si>
+  <si>
+    <t>game:chief:dialogue8</t>
+  </si>
+  <si>
+    <t>에헴..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ahem...</t>
+  </si>
+  <si>
+    <t>에헴!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ahem!!</t>
+  </si>
+  <si>
+    <t>이보게 모험가!!</t>
+  </si>
+  <si>
+    <t>Hey there, adventurer!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이보게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모험가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>!!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't you have any interest in making some money?</t>
+  </si>
+  <si>
+    <t>자네 돈 벌 생각 없나?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>됐군…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그럼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밖에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몬스터들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소탕하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돌아오면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계좌로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입금해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주겠네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good, good...\nThen, if you clear out the monsters\noutside the village and come back, \nI'll deposit it into your account.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>됐군</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그럼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밖에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몬스터들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소탕하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돌아오면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계좌로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입금해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주겠네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 밖으로 나가는 방법은\n이 물길을 따라 북쪽으로 쭉 올라가면 된다네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The way out of town is simple,\njust follow this stream all the way north.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고로 새로운 스테이지를 클리어하면\n마을에서 살 수 있는 아이템 품목과\n스킬 품목이 늘어나니 마을 밖으로\n나가기 전에 상점을 들려 정비하도록 하게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>By the way, when you clear new stages,\nthe items and skills available\nin the village shop will increase,\nso make sure to stop by the shop before\nheading out of town to stock up.</t>
+  </si>
+  <si>
+    <t>It's going to be an exciting adventure.\nBest of luck to you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재미있는 모험이 될걸세.\n행운을 비네.</t>
+  </si>
+  <si>
+    <t>네?</t>
+  </si>
+  <si>
+    <t>네?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈이요? 좋죠~</t>
+  </si>
+  <si>
+    <t>Money? Alright~</t>
+  </si>
+  <si>
+    <t>Yes! Understood~!</t>
+  </si>
+  <si>
+    <t>네! 알겠습니다~!</t>
+  </si>
+  <si>
+    <t>game:player:dialogue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:player:dialogue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환영합니다!\n\n\n\n\n튜토리얼은 없습니다. 하면서 배우는게 가장 좋은 방법이죠!\n\n게임중 궁금한 점이 생기면 "&lt;color=#00FF00&gt;HelperButton&lt;/color&gt;"을 눌러주세요.\n\n\n\n\n여러분의 모험에 행운이 깃들기를 기원합니다!</t>
+  </si>
+  <si>
+    <t>환영합니다!\n\n\n\n\n튜토리얼은 없습니다. 하면서 배우는게 가장 좋은 방법이죠!\n\n게임중 궁금한 점이 생기면 "&lt;color=#00FF00&gt;HelperButton&lt;/color&gt;"을 눌러주세요.\n\n\n\n\n여러분의 모험에 행운이 깃들기를 기원합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome!\n\n\n\n\nThere's no tutorial. Learning by doing is the best way, after all!\n\nIf you have any questions during the game, feel free to press the "&lt;color=#00FF00&gt;HelperButton&lt;/color&gt;"\n\n\n\n\nWishing you luck on your adventure!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:player:dialogue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:startguide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1014,7 +1708,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1094,6 +1788,33 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1118,7 +1839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1153,6 +1874,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -1437,8 +2168,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1476,19 +2207,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1496,19 +2227,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1516,19 +2247,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1536,19 +2267,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1556,19 +2287,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1576,19 +2307,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1596,19 +2327,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1616,19 +2347,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1636,19 +2367,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1656,19 +2387,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2696,19 +3427,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="D63" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="E63" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F63" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2716,19 +3447,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>196</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2736,19 +3467,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>207</v>
-      </c>
       <c r="E65" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2756,19 +3487,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>211</v>
-      </c>
       <c r="D66" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2776,19 +3507,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>107</v>
+        <v>244</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2796,19 +3527,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>107</v>
+        <v>249</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>107</v>
+        <v>249</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2816,179 +3547,179 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>107</v>
+        <v>255</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>107</v>
+        <v>278</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>107</v>
+        <v>278</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>107</v>
+        <v>263</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>107</v>
+        <v>281</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2996,79 +3727,79 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>107</v>
+        <v>289</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>107</v>
+        <v>283</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>107</v>
+        <v>282</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>107</v>
+        <v>294</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>107</v>
+        <v>295</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>107</v>
+        <v>296</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>107</v>
+        <v>291</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04CEF13-972F-4227-8480-52F33C6149B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55752DE-D885-455E-9EB6-0201D8AB4367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="310">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -837,10 +837,773 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Eliminate 1 Enemies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+    <t>game:popup:eliminate2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:newstart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 파일을 지우고\n새로 시작하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to delete the existing file\nand start anew?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료 하시겠습니까?</t>
+  </si>
+  <si>
+    <t>Are you sure you want to quit?</t>
+  </si>
+  <si>
+    <t>game:popup:exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:chief:dialogue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:chief:dialogue2</t>
+  </si>
+  <si>
+    <t>game:chief:dialogue3</t>
+  </si>
+  <si>
+    <t>game:chief:dialogue4</t>
+  </si>
+  <si>
+    <t>game:chief:dialogue5</t>
+  </si>
+  <si>
+    <t>game:chief:dialogue6</t>
+  </si>
+  <si>
+    <t>game:chief:dialogue7</t>
+  </si>
+  <si>
+    <t>game:chief:dialogue8</t>
+  </si>
+  <si>
+    <t>에헴..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ahem...</t>
+  </si>
+  <si>
+    <t>에헴!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ahem!!</t>
+  </si>
+  <si>
+    <t>이보게 모험가!!</t>
+  </si>
+  <si>
+    <t>Hey there, adventurer!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이보게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모험가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>!!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't you have any interest in making some money?</t>
+  </si>
+  <si>
+    <t>자네 돈 벌 생각 없나?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>됐군…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그럼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밖에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몬스터들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소탕하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돌아오면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계좌로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입금해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주겠네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good, good...\nThen, if you clear out the monsters\noutside the village and come back, \nI'll deposit it into your account.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>됐군</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그럼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밖에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몬스터들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소탕하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돌아오면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계좌로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입금해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주겠네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 밖으로 나가는 방법은\n이 물길을 따라 북쪽으로 쭉 올라가면 된다네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The way out of town is simple,\njust follow this stream all the way north.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고로 새로운 스테이지를 클리어하면\n마을에서 살 수 있는 아이템 품목과\n스킬 품목이 늘어나니 마을 밖으로\n나가기 전에 상점을 들려 정비하도록 하게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>By the way, when you clear new stages,\nthe items and skills available\nin the village shop will increase,\nso make sure to stop by the shop before\nheading out of town to stock up.</t>
+  </si>
+  <si>
+    <t>It's going to be an exciting adventure.\nBest of luck to you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재미있는 모험이 될걸세.\n행운을 비네.</t>
+  </si>
+  <si>
+    <t>네?</t>
+  </si>
+  <si>
+    <t>네?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈이요? 좋죠~</t>
+  </si>
+  <si>
+    <t>Money? Alright~</t>
+  </si>
+  <si>
+    <t>Yes! Understood~!</t>
+  </si>
+  <si>
+    <t>네! 알겠습니다~!</t>
+  </si>
+  <si>
+    <t>game:player:dialogue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:player:dialogue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환영합니다!\n\n\n\n\n튜토리얼은 없습니다. 하면서 배우는게 가장 좋은 방법이죠!\n\n게임중 궁금한 점이 생기면 "&lt;color=#00FF00&gt;HelperButton&lt;/color&gt;"을 눌러주세요.\n\n\n\n\n여러분의 모험에 행운이 깃들기를 기원합니다!</t>
+  </si>
+  <si>
+    <t>환영합니다!\n\n\n\n\n튜토리얼은 없습니다. 하면서 배우는게 가장 좋은 방법이죠!\n\n게임중 궁금한 점이 생기면 "&lt;color=#00FF00&gt;HelperButton&lt;/color&gt;"을 눌러주세요.\n\n\n\n\n여러분의 모험에 행운이 깃들기를 기원합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome!\n\n\n\n\nThere's no tutorial. Learning by doing is the best way, after all!\n\nIf you have any questions during the game, feel free to press the "&lt;color=#00FF00&gt;HelperButton&lt;/color&gt;"\n\n\n\n\nWishing you luck on your adventure!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:player:dialogue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:startguide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지를 선택하세요!\n\n\n\n\n스테이지를 선택하는 화면입니다.\n\n이 장면에서 궁금한 점이 생기면 "&lt;color=#00FF00&gt;HelperButton&lt;/color&gt;"을 눌러주세요.\n\n\n\n\n여러분의 모험에 행운이 깃들기를 기원합니다!</t>
+  </si>
+  <si>
+    <t>Please select a stage!\n\n\n\n\nThis is the stage selection screen.\n\nIf you have any questions in this scene, please press the "&lt;color=#00FF00&gt;HelperButton&lt;/color&gt;".\n\n\n\n\nWishing you the best of luck on your adventure!</t>
+  </si>
+  <si>
+    <t>game:popup:startguide2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:startguide3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투를 준비하세요!\n\n\n\n\n전투가 벌어지는 화면입니다.\n\n&lt;color=#00FF00&gt;아이템&lt;/color&gt;을 활용해서 전투에서 승리하세요!\n\n이 장면에서 궁금한 점이 생기면 "&lt;color=#00FF00&gt;HelperButton&lt;/color&gt;"을 눌러주세요.\n\n\n\n\n행운을 빕니다! 승리가 기다리고 있습니다!</t>
+  </si>
+  <si>
+    <t>Prepare for battle!\n\n\n\n\nThis is the screen where battles take place.\n\nUtilize &lt;color=#00FF00&gt;items&lt;/color&gt; to emerge victorious in combat!\n\nIf you have any questions in this scene, please press the "&lt;color=#00FF00&gt;HelperButton&lt;/color&gt;".\n\n\n\n\nBest of luck! Victory awaits!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF292C32"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -849,7 +1612,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>적</t>
+      <t>마리</t>
     </r>
     <r>
       <rPr>
@@ -858,7 +1621,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 1</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -868,146 +1631,91 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>마리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF292C32"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF292C32"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>처치</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적 1마리 처치</t>
-  </si>
-  <si>
-    <t>game:popup:eliminate2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:eliminate3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:eliminate4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:eliminate5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:eliminate6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:eliminate7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:eliminate8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:eliminate10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:eliminate9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 2마리 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eliminate 2 Enemies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 3마리 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 5마리 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 4마리 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 6마리 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 7마리 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 8마리 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 9마리 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 10마리 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eliminate 3 Enemies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eliminate 4 Enemies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eliminate 5 Enemies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eliminate 6 Enemies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eliminate 7 Enemies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eliminate 8 Enemies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eliminate 9 Enemies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eliminate 10 Enemies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:newstart</t>
+    <t>15마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 Kills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 Kills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 Kills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 Kills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 Kills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 Kills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 Kills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 Kills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 Kills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것으로 데모 버전 소개를 마칩니다.\n\n플레이 해주셔서 정말 감사합니다.</t>
+  </si>
+  <si>
+    <t>game:popup:demoend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1015,689 +1723,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기존 파일을 지우고\n새로 시작하시겠습니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Do you want to delete the existing file\nand start anew?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이틀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료 하시겠습니까?</t>
-  </si>
-  <si>
-    <t>Are you sure you want to quit?</t>
-  </si>
-  <si>
-    <t>game:popup:exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:chief:dialogue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:chief:dialogue2</t>
-  </si>
-  <si>
-    <t>game:chief:dialogue3</t>
-  </si>
-  <si>
-    <t>game:chief:dialogue4</t>
-  </si>
-  <si>
-    <t>game:chief:dialogue5</t>
-  </si>
-  <si>
-    <t>game:chief:dialogue6</t>
-  </si>
-  <si>
-    <t>game:chief:dialogue7</t>
-  </si>
-  <si>
-    <t>game:chief:dialogue8</t>
-  </si>
-  <si>
-    <t>에헴..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ahem...</t>
-  </si>
-  <si>
-    <t>에헴!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ahem!!</t>
-  </si>
-  <si>
-    <t>이보게 모험가!!</t>
-  </si>
-  <si>
-    <t>Hey there, adventurer!</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이보게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모험가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>!!</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Don't you have any interest in making some money?</t>
-  </si>
-  <si>
-    <t>자네 돈 벌 생각 없나?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>됐군…</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="3"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그럼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>밖에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>몬스터들을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소탕하고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="3"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>돌아오면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계좌로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입금해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주겠네</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good, good...\nThen, if you clear out the monsters\noutside the village and come back, \nI'll deposit it into your account.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>됐군</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그럼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>밖에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>몬스터들을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소탕하고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="3"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>돌아오면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계좌로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입금해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주겠네</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 밖으로 나가는 방법은\n이 물길을 따라 북쪽으로 쭉 올라가면 된다네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The way out of town is simple,\njust follow this stream all the way north.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참고로 새로운 스테이지를 클리어하면\n마을에서 살 수 있는 아이템 품목과\n스킬 품목이 늘어나니 마을 밖으로\n나가기 전에 상점을 들려 정비하도록 하게.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>By the way, when you clear new stages,\nthe items and skills available\nin the village shop will increase,\nso make sure to stop by the shop before\nheading out of town to stock up.</t>
-  </si>
-  <si>
-    <t>It's going to be an exciting adventure.\nBest of luck to you.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재미있는 모험이 될걸세.\n행운을 비네.</t>
-  </si>
-  <si>
-    <t>네?</t>
-  </si>
-  <si>
-    <t>네?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈이요? 좋죠~</t>
-  </si>
-  <si>
-    <t>Money? Alright~</t>
-  </si>
-  <si>
-    <t>Yes! Understood~!</t>
-  </si>
-  <si>
-    <t>네! 알겠습니다~!</t>
-  </si>
-  <si>
-    <t>game:player:dialogue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:player:dialogue2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환영합니다!\n\n\n\n\n튜토리얼은 없습니다. 하면서 배우는게 가장 좋은 방법이죠!\n\n게임중 궁금한 점이 생기면 "&lt;color=#00FF00&gt;HelperButton&lt;/color&gt;"을 눌러주세요.\n\n\n\n\n여러분의 모험에 행운이 깃들기를 기원합니다!</t>
-  </si>
-  <si>
-    <t>환영합니다!\n\n\n\n\n튜토리얼은 없습니다. 하면서 배우는게 가장 좋은 방법이죠!\n\n게임중 궁금한 점이 생기면 "&lt;color=#00FF00&gt;HelperButton&lt;/color&gt;"을 눌러주세요.\n\n\n\n\n여러분의 모험에 행운이 깃들기를 기원합니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome!\n\n\n\n\nThere's no tutorial. Learning by doing is the best way, after all!\n\nIf you have any questions during the game, feel free to press the "&lt;color=#00FF00&gt;HelperButton&lt;/color&gt;"\n\n\n\n\nWishing you luck on your adventure!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:player:dialogue3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:popup:startguide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
+    <t>This concludes the demo version.\n\nThank you so much for playing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을로 이동하시겠습니까?</t>
+  </si>
+  <si>
+    <t>Would you like to travel to the village?</t>
+  </si>
+  <si>
+    <t>game:popup:gotovillage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1708,7 +1744,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1815,6 +1851,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF292C32"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1873,7 +1916,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1884,6 +1926,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -2168,8 +2211,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2202,7 +2245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2212,194 +2255,194 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>213</v>
+      <c r="D2" s="17" t="s">
+        <v>283</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>241</v>
+        <v>292</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3470,7 +3513,7 @@
         <v>205</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>206</v>
@@ -3507,19 +3550,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3527,19 +3570,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3547,19 +3590,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3567,19 +3610,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>264</v>
+        <v>235</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3587,19 +3630,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3607,19 +3650,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>270</v>
+        <v>247</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3627,19 +3670,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
@@ -3647,19 +3690,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>273</v>
+        <v>235</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>252</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3667,19 +3710,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C75" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F75" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3687,19 +3730,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3707,19 +3750,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3727,19 +3770,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3747,19 +3790,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3767,19 +3810,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -3787,99 +3830,99 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>107</v>
+        <v>278</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="99" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>107</v>
+        <v>304</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>107</v>
+        <v>303</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>107</v>
+        <v>303</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>107</v>
+        <v>309</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>107</v>
+        <v>305</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55752DE-D885-455E-9EB6-0201D8AB4367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D05D70-EFB4-4569-A0C6-88FC3BDB2289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="365">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,9 +431,6 @@
   <si>
     <t>‘가방’에 개수가 같은 아이템은 ‘Quick Slot’에 하나만 등록 가능합니다. (사용 후 개수가 달라지면 다시 등록 가능)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asd</t>
   </si>
   <si>
     <t>game:itme:healrock:name</t>
@@ -1734,6 +1731,732 @@
   </si>
   <si>
     <t>game:popup:gotovillage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>game:button:pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:button:quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:healthpotion:name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP potion</t>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 최대 체력의 '10%'를 즉시 회복시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It immediately restores '10%' of the player's maximum health.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:healthpotion:normal:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:healthpotion:rare:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 최대 체력의 '20%'를 즉시 회복시킵니다.</t>
+  </si>
+  <si>
+    <t>플레이어 최대 체력의 '20%'를 즉시 회복시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It immediately restores '20%' of the player's maximum health.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 최대 체력의 '30%'를 즉시 회복시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It immediately restores '30%' of the player's maximum health.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:healthpotion:unique:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:invincibilitypotion:name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invincibility Potion</t>
+  </si>
+  <si>
+    <t>플레이어에게 '3초' 동안 무적 상태를 부여합니다!</t>
+  </si>
+  <si>
+    <t>플레이어에게 '3초' 동안 무적 상태를 부여합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grant the player invincibility for '3 seconds'!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어에게 '6초' 동안 무적 상태를 부여합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grant the player invincibility for '6 seconds'!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어에게 '10초' 동안 무적 상태를 부여합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grant the player invincibility for '10 seconds'!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피드 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:invincibilitpotion:normal:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:speedpotion:name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:speedpotion:normal:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:invincibilitpotion:rare:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:speedpotion:rare:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:invincibilitpotion:unique:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:speedpotion:unique:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 속도가 '10초' 동안 두 배로 증가합니다.</t>
+  </si>
+  <si>
+    <t>The player's speed is doubled for '10 seconds'.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플레이어의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>속도가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플레이어의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>속도가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The player's speed is doubled for '20 seconds'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The player's speed is doubled for '30 seconds'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blazing Firestorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:firestorm:name</t>
+  </si>
+  <si>
+    <t>화염 폭풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위치에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화염</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폭풍을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화염</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폭풍은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플레이어와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모두를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242B34"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creates a firestorm at the desired location for '30 seconds'.\nThe firestorm attacks both the player and enemies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:firestorm:long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1744,7 +2467,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1858,6 +2581,33 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242B34"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242B34"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242B34"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242B34"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1882,7 +2632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1927,6 +2677,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -2209,10 +2965,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2250,19 +3006,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>293</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2270,19 +3026,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2290,19 +3046,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2310,19 +3066,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2330,19 +3086,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2350,19 +3106,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2370,19 +3126,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2390,19 +3146,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2410,19 +3166,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2430,19 +3186,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -2756,13 +3512,13 @@
         <v>6</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3010,19 +3766,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="69" x14ac:dyDescent="0.3">
@@ -3030,19 +3786,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="D41" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="F41" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -3050,19 +3806,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -3070,19 +3826,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="D43" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="E43" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -3090,19 +3846,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="69" x14ac:dyDescent="0.3">
@@ -3110,19 +3866,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="11" t="s">
+      <c r="F45" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -3130,19 +3886,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -3150,19 +3906,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -3170,19 +3926,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D48" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="E48" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -3190,19 +3946,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>141</v>
-      </c>
       <c r="D49" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -3210,19 +3966,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -3230,19 +3986,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
@@ -3250,19 +4006,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3270,19 +4026,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3290,19 +4046,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3310,19 +4066,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3330,19 +4086,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="E56" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3350,19 +4106,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="D57" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>173</v>
-      </c>
       <c r="F57" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3370,19 +4126,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="D58" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>178</v>
-      </c>
       <c r="E58" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3390,19 +4146,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="D59" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>181</v>
-      </c>
       <c r="F59" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3410,19 +4166,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>186</v>
-      </c>
       <c r="E60" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3430,19 +4186,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3450,19 +4206,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C62" s="11" t="s">
-        <v>196</v>
-      </c>
       <c r="D62" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3470,19 +4226,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="D63" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="E63" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3490,19 +4246,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3510,19 +4266,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>206</v>
-      </c>
       <c r="E65" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3530,19 +4286,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>210</v>
-      </c>
       <c r="D66" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3550,19 +4306,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="D67" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="E67" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F67" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3570,19 +4326,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="D68" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="E68" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3590,19 +4346,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="D69" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3610,19 +4366,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>235</v>
-      </c>
       <c r="D70" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>243</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3630,19 +4386,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D71" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3650,19 +4406,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D72" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F72" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3670,19 +4426,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
@@ -3690,19 +4446,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E74" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F74" s="12" t="s">
         <v>252</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3710,19 +4466,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D75" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F75" s="11" t="s">
         <v>255</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3730,19 +4486,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D76" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F76" s="11" t="s">
         <v>257</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3750,19 +4506,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3770,19 +4526,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D78" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F78" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3790,19 +4546,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D79" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F79" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3810,19 +4566,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -3830,19 +4586,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>275</v>
-      </c>
       <c r="D81" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -3850,19 +4606,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>279</v>
-      </c>
       <c r="D82" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="F82" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99" x14ac:dyDescent="0.3">
@@ -3870,19 +4626,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C83" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D83" s="11" t="s">
+      <c r="E83" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F83" s="11" t="s">
         <v>281</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3890,19 +4646,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="D84" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F84" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3910,39 +4666,39 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D85" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="F85" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>107</v>
+      <c r="B86" s="13" t="s">
+        <v>311</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>107</v>
+        <v>309</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>107</v>
+        <v>309</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>107</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3950,59 +4706,59 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>107</v>
+        <v>315</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>107</v>
+        <v>313</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>107</v>
+        <v>313</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>107</v>
+        <v>316</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>107</v>
+        <v>317</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>107</v>
+        <v>318</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>107</v>
+        <v>323</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>107</v>
+        <v>320</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>107</v>
+        <v>321</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -4010,19 +4766,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>107</v>
+        <v>324</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>107</v>
+        <v>325</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>107</v>
+        <v>326</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>107</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -4030,39 +4786,39 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>107</v>
+        <v>331</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>107</v>
+        <v>325</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>107</v>
+        <v>329</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>107</v>
+        <v>329</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>107</v>
+        <v>332</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>107</v>
+        <v>333</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>107</v>
+        <v>333</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -4070,19 +4826,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>107</v>
+        <v>344</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>107</v>
+        <v>325</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>107</v>
+        <v>336</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>107</v>
+        <v>335</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>107</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -4090,49 +4846,2159 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>107</v>
+        <v>347</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>107</v>
+        <v>325</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>107</v>
+        <v>338</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>107</v>
+        <v>338</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>107</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>349</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D95" t="s">
+        <v>340</v>
+      </c>
+      <c r="E95" t="s">
+        <v>340</v>
+      </c>
+      <c r="F95" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>345</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>346</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>348</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>350</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>360</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="E100" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>358</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>358</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>358</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>358</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>358</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>358</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>358</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>358</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>358</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>358</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>358</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>358</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>358</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>358</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>358</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>358</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>358</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>358</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>358</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>358</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>358</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>358</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>358</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>358</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>358</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>358</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>358</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>358</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>358</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>358</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>358</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>358</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>358</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>358</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>358</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>358</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E137" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>358</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>358</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>358</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A141" s="3">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>358</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>358</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E142" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>358</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>358</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>358</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>358</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>358</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>358</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>358</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>358</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>358</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>358</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>358</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E153" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>358</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>358</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>358</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D156" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E156" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>358</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E157" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>358</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D158" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E158" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>358</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D159" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E159" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>358</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D160" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E160" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>358</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D161" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E161" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>358</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D162" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E162" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>358</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D163" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>358</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D164" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E164" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>358</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D165" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>358</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D166" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E166" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>358</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D167" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E167" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>358</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D168" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E168" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>358</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D169" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>358</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D170" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E170" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D171" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>358</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D172" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E172" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>358</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D173" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E173" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>358</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D174" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E174" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>358</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D175" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E175" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>358</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D176" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E176" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>358</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D177" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E177" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>358</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D178" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E178" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>358</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D179" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E179" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>358</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D180" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E180" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>358</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D181" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E181" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>358</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D182" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E182" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>358</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D183" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E183" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>358</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D184" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E184" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>358</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D185" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E185" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>358</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D186" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E186" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>358</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D187" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E187" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>358</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D188" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E188" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A189" s="3">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>358</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D189" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E189" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A190" s="3">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>358</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D190" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E190" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A191" s="3">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>358</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D191" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E191" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A192" s="3">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>358</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D192" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E192" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A193" s="3">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>358</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D193" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E193" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A194" s="3">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>358</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D194" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E194" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A195" s="3">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>358</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D195" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E195" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A196" s="3">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>358</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D196" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E196" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F196" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A197" s="3">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>358</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D197" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E197" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>358</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D198" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E198" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>358</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D199" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E199" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>358</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D200" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E200" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F200" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A201" s="3">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>358</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D201" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E201" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Smash\Smash\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D05D70-EFB4-4569-A0C6-88FC3BDB2289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB70043C-2993-4490-9BE5-B5600F45D4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="382">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>10마리 죽이기!</t>
-  </si>
-  <si>
-    <t>10마리 죽이기!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -433,9 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:itme:healrock:name</t>
-  </si>
-  <si>
     <t>힐링 스톤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -629,14 +623,6 @@
   </si>
   <si>
     <t>Dragonfly Pet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 주변을 돌아다니면서 함께 공격하는 '잠자리'를 소환합니다.\n잠자리는 60초 뒤에 사라집니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>We summon a 'dragonfly' that roams around the player and attacks together.\nThe dragonfly disappears after 60 seconds.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1669,10 +1655,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10마리 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10 Kills</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2457,6 +2439,94 @@
   </si>
   <si>
     <t>game:itme:firestorm:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:itme:healrock:name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:popup:eliminate15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10마리 죽이기!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 Kills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Kills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 Kills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 Kills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 Kills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 Kills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 주변을 돌아다니면서 함께 공격하는 '잠자리'를 소환합니다.\n잠자리는 20초 뒤에 사라집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We summon a 'dragonfly' that roams around the player and attacks together.\nThe dragonfly disappears after 20 seconds.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2965,10 +3035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3006,19 +3076,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3026,19 +3096,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3046,19 +3116,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3066,19 +3136,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3086,19 +3156,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3106,19 +3176,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3126,19 +3196,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3146,19 +3216,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3166,19 +3236,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3186,19 +3256,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>291</v>
+        <v>371</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>291</v>
+        <v>371</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>293</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3206,119 +3276,119 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>362</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>366</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>16</v>
+        <v>368</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>366</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>369</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>364</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>366</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>365</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>366</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>372</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>29</v>
+        <v>373</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3326,19 +3396,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -3346,19 +3416,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3366,19 +3436,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3386,19 +3456,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3406,19 +3476,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -3426,19 +3496,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -3446,7 +3516,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
@@ -3466,39 +3536,39 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3506,79 +3576,79 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3586,39 +3656,39 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>81</v>
+        <v>141</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3626,99 +3696,99 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -3726,179 +3796,179 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>110</v>
+      <c r="B41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="B42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="D42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>120</v>
+      <c r="B43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>128</v>
+        <v>110</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -3906,79 +3976,79 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -3986,39 +4056,39 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>159</v>
+        <v>130</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -4026,99 +4096,99 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>173</v>
+        <v>380</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>190</v>
+        <v>380</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -4126,39 +4196,39 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>189</v>
+        <v>159</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -4166,19 +4236,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -4186,39 +4256,39 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -4226,79 +4296,79 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -4306,19 +4376,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -4326,19 +4396,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -4346,159 +4416,159 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F75" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>256</v>
-      </c>
       <c r="E76" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>257</v>
+        <v>240</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -4506,159 +4576,159 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="99" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>305</v>
+        <v>230</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -4666,339 +4736,339 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="13" t="s">
-        <v>311</v>
+      <c r="B86" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="99" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>328</v>
+        <v>299</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>331</v>
+      <c r="B91" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>339</v>
+        <v>316</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>349</v>
+      <c r="B95" s="11" t="s">
+        <v>319</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D95" t="s">
-        <v>340</v>
-      </c>
-      <c r="E95" t="s">
-        <v>340</v>
-      </c>
-      <c r="F95" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>345</v>
+      <c r="B96" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="C96" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F96" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>346</v>
+      <c r="B97" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D97" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="E97" s="18" t="s">
-        <v>351</v>
+        <v>42</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>328</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>348</v>
+      <c r="B98" s="11" t="s">
+        <v>339</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D98" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="E98" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>350</v>
+      <c r="B99" s="11" t="s">
+        <v>342</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="E99" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="E100" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="D100" t="s">
+        <v>335</v>
+      </c>
+      <c r="E100" t="s">
+        <v>335</v>
+      </c>
+      <c r="F100" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>364</v>
+      <c r="B101" t="s">
+        <v>340</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>363</v>
+        <v>320</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5006,19 +5076,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="E102" s="19" t="s">
-        <v>358</v>
+        <v>320</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>346</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5026,19 +5096,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5046,19 +5116,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5066,38 +5136,38 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>358</v>
+        <v>354</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="E105" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
-        <v>358</v>
+      <c r="B106" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="E106" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="F106" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="F106" s="10" t="s">
         <v>358</v>
       </c>
     </row>
@@ -5106,19 +5176,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5126,19 +5196,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5146,19 +5216,19 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5166,19 +5236,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5186,19 +5256,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5206,19 +5276,19 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5226,19 +5296,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5246,19 +5316,19 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5266,19 +5336,19 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5286,19 +5356,19 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5306,19 +5376,19 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5326,19 +5396,19 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5346,19 +5416,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5366,19 +5436,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5386,19 +5456,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5406,19 +5476,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5426,19 +5496,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5446,19 +5516,19 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5466,19 +5536,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5486,19 +5556,19 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5506,19 +5576,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E127" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5526,19 +5596,19 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5546,19 +5616,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E129" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5566,19 +5636,19 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5586,19 +5656,19 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E131" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5606,19 +5676,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E132" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5626,19 +5696,19 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E133" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5646,19 +5716,19 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E134" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5666,19 +5736,19 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E135" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5686,19 +5756,19 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E136" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5706,19 +5776,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5726,19 +5796,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E138" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5746,19 +5816,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E139" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5766,19 +5836,19 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5786,19 +5856,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5806,19 +5876,19 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E142" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5826,19 +5896,19 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E143" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5846,19 +5916,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5866,19 +5936,19 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5886,19 +5956,19 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5906,19 +5976,19 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E147" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5926,19 +5996,19 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5946,19 +6016,19 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5966,19 +6036,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5986,19 +6056,19 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6006,19 +6076,19 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6026,19 +6096,19 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6046,19 +6116,19 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E154" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6066,19 +6136,19 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E155" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6086,19 +6156,19 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E156" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6106,19 +6176,19 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E157" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6126,19 +6196,19 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E158" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6146,19 +6216,19 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E159" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6166,19 +6236,19 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E160" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6186,19 +6256,19 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E161" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6206,19 +6276,19 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E162" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6226,19 +6296,19 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D163" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E163" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6246,19 +6316,19 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D164" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E164" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6266,19 +6336,19 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E165" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6286,19 +6356,19 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E166" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6306,19 +6376,19 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E167" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6326,19 +6396,19 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E168" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6346,19 +6416,19 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6366,19 +6436,19 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E170" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6386,19 +6456,19 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E171" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6406,19 +6476,19 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E172" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6426,19 +6496,19 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E173" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6446,19 +6516,19 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E174" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6466,19 +6536,19 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E175" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6486,19 +6556,19 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E176" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6506,19 +6576,19 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E177" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6526,19 +6596,19 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E178" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6546,19 +6616,19 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E179" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6566,19 +6636,19 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E180" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6586,19 +6656,19 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E181" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6606,19 +6676,19 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E182" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6626,19 +6696,19 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E183" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6646,19 +6716,19 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E184" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6666,19 +6736,19 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E185" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6686,19 +6756,19 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E186" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6706,19 +6776,19 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E187" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6726,19 +6796,19 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E188" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6746,19 +6816,19 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E189" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6766,19 +6836,19 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E190" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6786,19 +6856,19 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D191" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E191" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6806,19 +6876,19 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E192" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6826,19 +6896,19 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E193" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6846,19 +6916,19 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E194" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6866,19 +6936,19 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E195" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6886,19 +6956,19 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E196" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F196" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6906,19 +6976,19 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E197" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F197" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6926,19 +6996,19 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E198" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F198" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6946,19 +7016,19 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E199" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6966,19 +7036,19 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E200" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6986,23 +7056,123 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E201" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>353</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D202" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="E202" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="F202" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A203" s="3">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>353</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D203" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="E203" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A204" s="3">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>353</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D204" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="E204" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="F204" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A205" s="3">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>353</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D205" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="E205" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A206" s="3">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>353</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D206" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="E206" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="F206" s="9" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
